--- a/data/Invertebrate.1.0.xlsx
+++ b/data/Invertebrate.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryaneckert/GitHub/Xestospongia_FL_PopGen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF0D1D2-95F0-ED42-8CCC-6016E473DB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B249BD70-84D8-6248-9570-CA374D86275B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1265,726 +1265,6 @@
     <t>not applicable</t>
   </si>
   <si>
-    <t>XFKX001.trim</t>
-  </si>
-  <si>
-    <t>XFKX002.trim</t>
-  </si>
-  <si>
-    <t>XFKX003.trim</t>
-  </si>
-  <si>
-    <t>XFKX004.trim</t>
-  </si>
-  <si>
-    <t>XFKX005.trim</t>
-  </si>
-  <si>
-    <t>XFKX006.trim</t>
-  </si>
-  <si>
-    <t>XFKX007.trim</t>
-  </si>
-  <si>
-    <t>XFKX008.trim</t>
-  </si>
-  <si>
-    <t>XFKX009.trim</t>
-  </si>
-  <si>
-    <t>XFKX010.trim</t>
-  </si>
-  <si>
-    <t>XFKX011.trim</t>
-  </si>
-  <si>
-    <t>XFKX012.trim</t>
-  </si>
-  <si>
-    <t>XFKX013.trim</t>
-  </si>
-  <si>
-    <t>XFKX014.1.trim</t>
-  </si>
-  <si>
-    <t>XFKX014.2.trim</t>
-  </si>
-  <si>
-    <t>XFKX014.3.trim</t>
-  </si>
-  <si>
-    <t>XFKX015.trim</t>
-  </si>
-  <si>
-    <t>XFKX016.trim</t>
-  </si>
-  <si>
-    <t>XFKX017.trim</t>
-  </si>
-  <si>
-    <t>XFKX018.trim</t>
-  </si>
-  <si>
-    <t>XFKX019.trim</t>
-  </si>
-  <si>
-    <t>XFKX020.trim</t>
-  </si>
-  <si>
-    <t>XFKX021.trim</t>
-  </si>
-  <si>
-    <t>XFKX022.trim</t>
-  </si>
-  <si>
-    <t>XFKX023.trim</t>
-  </si>
-  <si>
-    <t>XFKX024.trim</t>
-  </si>
-  <si>
-    <t>XFKX025.trim</t>
-  </si>
-  <si>
-    <t>XFKX026.trim</t>
-  </si>
-  <si>
-    <t>XFKX027.trim</t>
-  </si>
-  <si>
-    <t>XFKX028.trim</t>
-  </si>
-  <si>
-    <t>XFKX029.1.trim</t>
-  </si>
-  <si>
-    <t>XFKX029.2.trim</t>
-  </si>
-  <si>
-    <t>XFKX030.trim</t>
-  </si>
-  <si>
-    <t>XFKX031.trim</t>
-  </si>
-  <si>
-    <t>XFKX032.trim</t>
-  </si>
-  <si>
-    <t>XFKX033.trim</t>
-  </si>
-  <si>
-    <t>XFKX034.trim</t>
-  </si>
-  <si>
-    <t>XFKX035.trim</t>
-  </si>
-  <si>
-    <t>XFKX036.trim</t>
-  </si>
-  <si>
-    <t>XFKX037.trim</t>
-  </si>
-  <si>
-    <t>XFKX038.trim</t>
-  </si>
-  <si>
-    <t>XFKX039.trim</t>
-  </si>
-  <si>
-    <t>XFKX040.trim</t>
-  </si>
-  <si>
-    <t>XFKX041.trim</t>
-  </si>
-  <si>
-    <t>XFKX042.trim</t>
-  </si>
-  <si>
-    <t>XFKX043.trim</t>
-  </si>
-  <si>
-    <t>XFKX044.trim</t>
-  </si>
-  <si>
-    <t>XFKX045.trim</t>
-  </si>
-  <si>
-    <t>XFKX046.trim</t>
-  </si>
-  <si>
-    <t>XFKX047.trim</t>
-  </si>
-  <si>
-    <t>XFKX048.trim</t>
-  </si>
-  <si>
-    <t>XFKX049.trim</t>
-  </si>
-  <si>
-    <t>XFKX050.trim</t>
-  </si>
-  <si>
-    <t>XFKX051.trim</t>
-  </si>
-  <si>
-    <t>XFKX052.trim</t>
-  </si>
-  <si>
-    <t>XFKX053.trim</t>
-  </si>
-  <si>
-    <t>XFKX054.trim</t>
-  </si>
-  <si>
-    <t>XFKX055.trim</t>
-  </si>
-  <si>
-    <t>XFKX056.trim</t>
-  </si>
-  <si>
-    <t>XFKX057.trim</t>
-  </si>
-  <si>
-    <t>XFKX058.trim</t>
-  </si>
-  <si>
-    <t>XFKX059.trim</t>
-  </si>
-  <si>
-    <t>XFKX060.trim</t>
-  </si>
-  <si>
-    <t>XFKX061.trim</t>
-  </si>
-  <si>
-    <t>XFKX062.trim</t>
-  </si>
-  <si>
-    <t>XFKX063.trim</t>
-  </si>
-  <si>
-    <t>XFKX064.trim</t>
-  </si>
-  <si>
-    <t>XFKX065.trim</t>
-  </si>
-  <si>
-    <t>XFKX066.trim</t>
-  </si>
-  <si>
-    <t>XFKX067.trim</t>
-  </si>
-  <si>
-    <t>XFKX068.trim</t>
-  </si>
-  <si>
-    <t>XFKX069.trim</t>
-  </si>
-  <si>
-    <t>XFKX070.trim</t>
-  </si>
-  <si>
-    <t>XFKX071.trim</t>
-  </si>
-  <si>
-    <t>XFKX072.trim</t>
-  </si>
-  <si>
-    <t>XFKX073.trim</t>
-  </si>
-  <si>
-    <t>XFKX074.trim</t>
-  </si>
-  <si>
-    <t>XFKX075.trim</t>
-  </si>
-  <si>
-    <t>XFKX076.trim</t>
-  </si>
-  <si>
-    <t>XFKX077.trim</t>
-  </si>
-  <si>
-    <t>XFKX078.trim</t>
-  </si>
-  <si>
-    <t>XFKX079.trim</t>
-  </si>
-  <si>
-    <t>XFKX080.trim</t>
-  </si>
-  <si>
-    <t>XFKX081.trim</t>
-  </si>
-  <si>
-    <t>XFKX082.trim</t>
-  </si>
-  <si>
-    <t>XFKX083.trim</t>
-  </si>
-  <si>
-    <t>XFKX084.trim</t>
-  </si>
-  <si>
-    <t>XFKX085.trim</t>
-  </si>
-  <si>
-    <t>XFKX086.trim</t>
-  </si>
-  <si>
-    <t>XFKX087.trim</t>
-  </si>
-  <si>
-    <t>XFKX088.trim</t>
-  </si>
-  <si>
-    <t>XFKX089.trim</t>
-  </si>
-  <si>
-    <t>XFKX090.trim</t>
-  </si>
-  <si>
-    <t>XFKX091.trim</t>
-  </si>
-  <si>
-    <t>XFKX092.trim</t>
-  </si>
-  <si>
-    <t>XFKX093.trim</t>
-  </si>
-  <si>
-    <t>XFKX094.trim</t>
-  </si>
-  <si>
-    <t>XFKX095.trim</t>
-  </si>
-  <si>
-    <t>XFKX096.trim</t>
-  </si>
-  <si>
-    <t>XFKX097.trim</t>
-  </si>
-  <si>
-    <t>XFKX098.trim</t>
-  </si>
-  <si>
-    <t>XFKX099.trim</t>
-  </si>
-  <si>
-    <t>XFKX100.trim</t>
-  </si>
-  <si>
-    <t>XFKX101.trim</t>
-  </si>
-  <si>
-    <t>XFKX102.trim</t>
-  </si>
-  <si>
-    <t>XFKX103.trim</t>
-  </si>
-  <si>
-    <t>XFKX104.trim</t>
-  </si>
-  <si>
-    <t>XFKX105.trim</t>
-  </si>
-  <si>
-    <t>XFKX106.trim</t>
-  </si>
-  <si>
-    <t>XFKX107.trim</t>
-  </si>
-  <si>
-    <t>XFKX108.trim</t>
-  </si>
-  <si>
-    <t>XFKX109.trim</t>
-  </si>
-  <si>
-    <t>XFKX110.trim</t>
-  </si>
-  <si>
-    <t>XFKX111.trim</t>
-  </si>
-  <si>
-    <t>XFKX112.trim</t>
-  </si>
-  <si>
-    <t>XFKX113.trim</t>
-  </si>
-  <si>
-    <t>XFKX114.trim</t>
-  </si>
-  <si>
-    <t>XFKX115.trim</t>
-  </si>
-  <si>
-    <t>XFKX116.trim</t>
-  </si>
-  <si>
-    <t>XFKX117.trim</t>
-  </si>
-  <si>
-    <t>XFKX118.trim</t>
-  </si>
-  <si>
-    <t>XFKX119.trim</t>
-  </si>
-  <si>
-    <t>XFKX120.trim</t>
-  </si>
-  <si>
-    <t>XFKX121.1.trim</t>
-  </si>
-  <si>
-    <t>XFKX121.2.trim</t>
-  </si>
-  <si>
-    <t>XFKX121.3.trim</t>
-  </si>
-  <si>
-    <t>XFKX122.trim</t>
-  </si>
-  <si>
-    <t>XFKX123.trim</t>
-  </si>
-  <si>
-    <t>XFKX124.trim</t>
-  </si>
-  <si>
-    <t>XFKX125.trim</t>
-  </si>
-  <si>
-    <t>XFKX126.trim</t>
-  </si>
-  <si>
-    <t>XFKX127.trim</t>
-  </si>
-  <si>
-    <t>XFKX128.trim</t>
-  </si>
-  <si>
-    <t>XFKX129.trim</t>
-  </si>
-  <si>
-    <t>XFKX130.trim</t>
-  </si>
-  <si>
-    <t>XFKX131.trim</t>
-  </si>
-  <si>
-    <t>XFKX132.trim</t>
-  </si>
-  <si>
-    <t>XFKX133.trim</t>
-  </si>
-  <si>
-    <t>XFKX134.trim</t>
-  </si>
-  <si>
-    <t>XFKX135.trim</t>
-  </si>
-  <si>
-    <t>XFKX136.trim</t>
-  </si>
-  <si>
-    <t>XFKX137.trim</t>
-  </si>
-  <si>
-    <t>XFKX138.trim</t>
-  </si>
-  <si>
-    <t>XFKX139.trim</t>
-  </si>
-  <si>
-    <t>XFKX140.trim</t>
-  </si>
-  <si>
-    <t>XFKX141.trim</t>
-  </si>
-  <si>
-    <t>XFKX142.trim</t>
-  </si>
-  <si>
-    <t>XFKX143.trim</t>
-  </si>
-  <si>
-    <t>XFKX144.trim</t>
-  </si>
-  <si>
-    <t>XFKX145.trim</t>
-  </si>
-  <si>
-    <t>XFKX146.trim</t>
-  </si>
-  <si>
-    <t>XFKX147.trim</t>
-  </si>
-  <si>
-    <t>XFKX148.trim</t>
-  </si>
-  <si>
-    <t>XFKX149.trim</t>
-  </si>
-  <si>
-    <t>XFKX150.trim</t>
-  </si>
-  <si>
-    <t>XFKX151.trim</t>
-  </si>
-  <si>
-    <t>XFKX152.trim</t>
-  </si>
-  <si>
-    <t>XFKX153.trim</t>
-  </si>
-  <si>
-    <t>XFKX154.trim</t>
-  </si>
-  <si>
-    <t>XFKX155.trim</t>
-  </si>
-  <si>
-    <t>XFKX156.trim</t>
-  </si>
-  <si>
-    <t>XFKX157.trim</t>
-  </si>
-  <si>
-    <t>XFKX158.trim</t>
-  </si>
-  <si>
-    <t>XFKX159.1.trim</t>
-  </si>
-  <si>
-    <t>XFKX159.2.trim</t>
-  </si>
-  <si>
-    <t>XFKX160.trim</t>
-  </si>
-  <si>
-    <t>XFKX161.trim</t>
-  </si>
-  <si>
-    <t>XFKX162.trim</t>
-  </si>
-  <si>
-    <t>XFKX163.trim</t>
-  </si>
-  <si>
-    <t>XFKX164.trim</t>
-  </si>
-  <si>
-    <t>XFKX165.trim</t>
-  </si>
-  <si>
-    <t>XFKX166.trim</t>
-  </si>
-  <si>
-    <t>XFKX167.trim</t>
-  </si>
-  <si>
-    <t>XFKX168.trim</t>
-  </si>
-  <si>
-    <t>XFKX169.trim</t>
-  </si>
-  <si>
-    <t>XFKX170.trim</t>
-  </si>
-  <si>
-    <t>XFKX171.trim</t>
-  </si>
-  <si>
-    <t>XFKX172.trim</t>
-  </si>
-  <si>
-    <t>XFKX173.trim</t>
-  </si>
-  <si>
-    <t>XFKX174.trim</t>
-  </si>
-  <si>
-    <t>XFKX175.trim</t>
-  </si>
-  <si>
-    <t>XFKX176.trim</t>
-  </si>
-  <si>
-    <t>XFKX177.trim</t>
-  </si>
-  <si>
-    <t>XFKX178.trim</t>
-  </si>
-  <si>
-    <t>XFKX179.trim</t>
-  </si>
-  <si>
-    <t>XFKX180.trim</t>
-  </si>
-  <si>
-    <t>XFKX181.trim</t>
-  </si>
-  <si>
-    <t>XFKX182.trim</t>
-  </si>
-  <si>
-    <t>XFKX183.trim</t>
-  </si>
-  <si>
-    <t>XFKX184.trim</t>
-  </si>
-  <si>
-    <t>XFKX185.trim</t>
-  </si>
-  <si>
-    <t>XFKX186.trim</t>
-  </si>
-  <si>
-    <t>XFKX187.trim</t>
-  </si>
-  <si>
-    <t>XFKX188.trim</t>
-  </si>
-  <si>
-    <t>XFKX189.trim</t>
-  </si>
-  <si>
-    <t>XFKX190.1.trim</t>
-  </si>
-  <si>
-    <t>XFKX190.2.trim</t>
-  </si>
-  <si>
-    <t>XFKX190.3.trim</t>
-  </si>
-  <si>
-    <t>XFKX191.trim</t>
-  </si>
-  <si>
-    <t>XFKX192.trim</t>
-  </si>
-  <si>
-    <t>XFKX193.trim</t>
-  </si>
-  <si>
-    <t>XFKX194.trim</t>
-  </si>
-  <si>
-    <t>XFKX195.trim</t>
-  </si>
-  <si>
-    <t>XFKX196.trim</t>
-  </si>
-  <si>
-    <t>XFKX197.trim</t>
-  </si>
-  <si>
-    <t>XFKX198.trim</t>
-  </si>
-  <si>
-    <t>XFKX199.trim</t>
-  </si>
-  <si>
-    <t>XFKX200.trim</t>
-  </si>
-  <si>
-    <t>XFKX201.trim</t>
-  </si>
-  <si>
-    <t>XFKX202.trim</t>
-  </si>
-  <si>
-    <t>XFKX203.trim</t>
-  </si>
-  <si>
-    <t>XFKX204.trim</t>
-  </si>
-  <si>
-    <t>XFKX205.trim</t>
-  </si>
-  <si>
-    <t>XFKX206.trim</t>
-  </si>
-  <si>
-    <t>XFKX207.trim</t>
-  </si>
-  <si>
-    <t>XFKX208.trim</t>
-  </si>
-  <si>
-    <t>XFKX209.trim</t>
-  </si>
-  <si>
-    <t>XFKX210.trim</t>
-  </si>
-  <si>
-    <t>XFKX211.trim</t>
-  </si>
-  <si>
-    <t>XFKX212.trim</t>
-  </si>
-  <si>
-    <t>XFKX213.trim</t>
-  </si>
-  <si>
-    <t>XFKX214.trim</t>
-  </si>
-  <si>
-    <t>XFKX215.trim</t>
-  </si>
-  <si>
-    <t>XFKX216.trim</t>
-  </si>
-  <si>
-    <t>XFKX217.trim</t>
-  </si>
-  <si>
-    <t>XFKX218.trim</t>
-  </si>
-  <si>
-    <t>XFKX219.trim</t>
-  </si>
-  <si>
-    <t>XFKX220.trim</t>
-  </si>
-  <si>
-    <t>XFKX221.trim</t>
-  </si>
-  <si>
-    <t>XFKX222.trim</t>
-  </si>
-  <si>
-    <t>XFKX223.trim</t>
-  </si>
-  <si>
-    <t>XFKX224.trim</t>
-  </si>
-  <si>
-    <t>XFKX225.trim</t>
-  </si>
-  <si>
-    <t>XFKX226.trim</t>
-  </si>
-  <si>
-    <t>XFKX227.trim</t>
-  </si>
-  <si>
-    <t>XFKX228.trim</t>
-  </si>
-  <si>
-    <t>XFKX229.trim</t>
-  </si>
-  <si>
-    <t>XFKX230.trim</t>
-  </si>
-  <si>
-    <t>XFKX231.trim</t>
-  </si>
-  <si>
-    <t>XFKX232.trim</t>
-  </si>
-  <si>
     <t>XSF001.trim</t>
   </si>
   <si>
@@ -2361,6 +1641,726 @@
   </si>
   <si>
     <t>XSF120.trim</t>
+  </si>
+  <si>
+    <t>XFK001.trim</t>
+  </si>
+  <si>
+    <t>XFK002.trim</t>
+  </si>
+  <si>
+    <t>XFK003.trim</t>
+  </si>
+  <si>
+    <t>XFK004.trim</t>
+  </si>
+  <si>
+    <t>XFK005.trim</t>
+  </si>
+  <si>
+    <t>XFK006.trim</t>
+  </si>
+  <si>
+    <t>XFK007.trim</t>
+  </si>
+  <si>
+    <t>XFK008.trim</t>
+  </si>
+  <si>
+    <t>XFK009.trim</t>
+  </si>
+  <si>
+    <t>XFK010.trim</t>
+  </si>
+  <si>
+    <t>XFK011.trim</t>
+  </si>
+  <si>
+    <t>XFK012.trim</t>
+  </si>
+  <si>
+    <t>XFK013.trim</t>
+  </si>
+  <si>
+    <t>XFK014.1.trim</t>
+  </si>
+  <si>
+    <t>XFK014.2.trim</t>
+  </si>
+  <si>
+    <t>XFK014.3.trim</t>
+  </si>
+  <si>
+    <t>XFK015.trim</t>
+  </si>
+  <si>
+    <t>XFK016.trim</t>
+  </si>
+  <si>
+    <t>XFK017.trim</t>
+  </si>
+  <si>
+    <t>XFK018.trim</t>
+  </si>
+  <si>
+    <t>XFK019.trim</t>
+  </si>
+  <si>
+    <t>XFK020.trim</t>
+  </si>
+  <si>
+    <t>XFK021.trim</t>
+  </si>
+  <si>
+    <t>XFK022.trim</t>
+  </si>
+  <si>
+    <t>XFK023.trim</t>
+  </si>
+  <si>
+    <t>XFK024.trim</t>
+  </si>
+  <si>
+    <t>XFK025.trim</t>
+  </si>
+  <si>
+    <t>XFK026.trim</t>
+  </si>
+  <si>
+    <t>XFK027.trim</t>
+  </si>
+  <si>
+    <t>XFK028.trim</t>
+  </si>
+  <si>
+    <t>XFK029.1.trim</t>
+  </si>
+  <si>
+    <t>XFK029.2.trim</t>
+  </si>
+  <si>
+    <t>XFK030.trim</t>
+  </si>
+  <si>
+    <t>XFK031.trim</t>
+  </si>
+  <si>
+    <t>XFK032.trim</t>
+  </si>
+  <si>
+    <t>XFK033.trim</t>
+  </si>
+  <si>
+    <t>XFK034.trim</t>
+  </si>
+  <si>
+    <t>XFK035.trim</t>
+  </si>
+  <si>
+    <t>XFK036.trim</t>
+  </si>
+  <si>
+    <t>XFK037.trim</t>
+  </si>
+  <si>
+    <t>XFK038.trim</t>
+  </si>
+  <si>
+    <t>XFK039.trim</t>
+  </si>
+  <si>
+    <t>XFK040.trim</t>
+  </si>
+  <si>
+    <t>XFK041.trim</t>
+  </si>
+  <si>
+    <t>XFK042.trim</t>
+  </si>
+  <si>
+    <t>XFK043.trim</t>
+  </si>
+  <si>
+    <t>XFK044.trim</t>
+  </si>
+  <si>
+    <t>XFK045.trim</t>
+  </si>
+  <si>
+    <t>XFK046.trim</t>
+  </si>
+  <si>
+    <t>XFK047.trim</t>
+  </si>
+  <si>
+    <t>XFK048.trim</t>
+  </si>
+  <si>
+    <t>XFK049.trim</t>
+  </si>
+  <si>
+    <t>XFK050.trim</t>
+  </si>
+  <si>
+    <t>XFK051.trim</t>
+  </si>
+  <si>
+    <t>XFK052.trim</t>
+  </si>
+  <si>
+    <t>XFK053.trim</t>
+  </si>
+  <si>
+    <t>XFK054.trim</t>
+  </si>
+  <si>
+    <t>XFK055.trim</t>
+  </si>
+  <si>
+    <t>XFK056.trim</t>
+  </si>
+  <si>
+    <t>XFK057.trim</t>
+  </si>
+  <si>
+    <t>XFK058.trim</t>
+  </si>
+  <si>
+    <t>XFK059.trim</t>
+  </si>
+  <si>
+    <t>XFK060.trim</t>
+  </si>
+  <si>
+    <t>XFK061.trim</t>
+  </si>
+  <si>
+    <t>XFK062.trim</t>
+  </si>
+  <si>
+    <t>XFK063.trim</t>
+  </si>
+  <si>
+    <t>XFK064.trim</t>
+  </si>
+  <si>
+    <t>XFK065.trim</t>
+  </si>
+  <si>
+    <t>XFK066.trim</t>
+  </si>
+  <si>
+    <t>XFK067.trim</t>
+  </si>
+  <si>
+    <t>XFK068.trim</t>
+  </si>
+  <si>
+    <t>XFK069.trim</t>
+  </si>
+  <si>
+    <t>XFK070.trim</t>
+  </si>
+  <si>
+    <t>XFK071.trim</t>
+  </si>
+  <si>
+    <t>XFK072.trim</t>
+  </si>
+  <si>
+    <t>XFK073.trim</t>
+  </si>
+  <si>
+    <t>XFK074.trim</t>
+  </si>
+  <si>
+    <t>XFK075.trim</t>
+  </si>
+  <si>
+    <t>XFK076.trim</t>
+  </si>
+  <si>
+    <t>XFK077.trim</t>
+  </si>
+  <si>
+    <t>XFK078.trim</t>
+  </si>
+  <si>
+    <t>XFK079.trim</t>
+  </si>
+  <si>
+    <t>XFK080.trim</t>
+  </si>
+  <si>
+    <t>XFK081.trim</t>
+  </si>
+  <si>
+    <t>XFK082.trim</t>
+  </si>
+  <si>
+    <t>XFK083.trim</t>
+  </si>
+  <si>
+    <t>XFK084.trim</t>
+  </si>
+  <si>
+    <t>XFK085.trim</t>
+  </si>
+  <si>
+    <t>XFK086.trim</t>
+  </si>
+  <si>
+    <t>XFK087.trim</t>
+  </si>
+  <si>
+    <t>XFK088.trim</t>
+  </si>
+  <si>
+    <t>XFK089.trim</t>
+  </si>
+  <si>
+    <t>XFK090.trim</t>
+  </si>
+  <si>
+    <t>XFK091.trim</t>
+  </si>
+  <si>
+    <t>XFK092.trim</t>
+  </si>
+  <si>
+    <t>XFK093.trim</t>
+  </si>
+  <si>
+    <t>XFK094.trim</t>
+  </si>
+  <si>
+    <t>XFK095.trim</t>
+  </si>
+  <si>
+    <t>XFK096.trim</t>
+  </si>
+  <si>
+    <t>XFK097.trim</t>
+  </si>
+  <si>
+    <t>XFK098.trim</t>
+  </si>
+  <si>
+    <t>XFK099.trim</t>
+  </si>
+  <si>
+    <t>XFK100.trim</t>
+  </si>
+  <si>
+    <t>XFK101.trim</t>
+  </si>
+  <si>
+    <t>XFK102.trim</t>
+  </si>
+  <si>
+    <t>XFK103.trim</t>
+  </si>
+  <si>
+    <t>XFK104.trim</t>
+  </si>
+  <si>
+    <t>XFK105.trim</t>
+  </si>
+  <si>
+    <t>XFK106.trim</t>
+  </si>
+  <si>
+    <t>XFK107.trim</t>
+  </si>
+  <si>
+    <t>XFK108.trim</t>
+  </si>
+  <si>
+    <t>XFK109.trim</t>
+  </si>
+  <si>
+    <t>XFK110.trim</t>
+  </si>
+  <si>
+    <t>XFK111.trim</t>
+  </si>
+  <si>
+    <t>XFK112.trim</t>
+  </si>
+  <si>
+    <t>XFK113.trim</t>
+  </si>
+  <si>
+    <t>XFK114.trim</t>
+  </si>
+  <si>
+    <t>XFK115.trim</t>
+  </si>
+  <si>
+    <t>XFK116.trim</t>
+  </si>
+  <si>
+    <t>XFK117.trim</t>
+  </si>
+  <si>
+    <t>XFK118.trim</t>
+  </si>
+  <si>
+    <t>XFK119.trim</t>
+  </si>
+  <si>
+    <t>XFK120.trim</t>
+  </si>
+  <si>
+    <t>XFK121.1.trim</t>
+  </si>
+  <si>
+    <t>XFK121.2.trim</t>
+  </si>
+  <si>
+    <t>XFK121.3.trim</t>
+  </si>
+  <si>
+    <t>XFK122.trim</t>
+  </si>
+  <si>
+    <t>XFK123.trim</t>
+  </si>
+  <si>
+    <t>XFK124.trim</t>
+  </si>
+  <si>
+    <t>XFK125.trim</t>
+  </si>
+  <si>
+    <t>XFK126.trim</t>
+  </si>
+  <si>
+    <t>XFK127.trim</t>
+  </si>
+  <si>
+    <t>XFK128.trim</t>
+  </si>
+  <si>
+    <t>XFK129.trim</t>
+  </si>
+  <si>
+    <t>XFK130.trim</t>
+  </si>
+  <si>
+    <t>XFK131.trim</t>
+  </si>
+  <si>
+    <t>XFK132.trim</t>
+  </si>
+  <si>
+    <t>XFK133.trim</t>
+  </si>
+  <si>
+    <t>XFK134.trim</t>
+  </si>
+  <si>
+    <t>XFK135.trim</t>
+  </si>
+  <si>
+    <t>XFK136.trim</t>
+  </si>
+  <si>
+    <t>XFK137.trim</t>
+  </si>
+  <si>
+    <t>XFK138.trim</t>
+  </si>
+  <si>
+    <t>XFK139.trim</t>
+  </si>
+  <si>
+    <t>XFK140.trim</t>
+  </si>
+  <si>
+    <t>XFK141.trim</t>
+  </si>
+  <si>
+    <t>XFK142.trim</t>
+  </si>
+  <si>
+    <t>XFK143.trim</t>
+  </si>
+  <si>
+    <t>XFK144.trim</t>
+  </si>
+  <si>
+    <t>XFK145.trim</t>
+  </si>
+  <si>
+    <t>XFK146.trim</t>
+  </si>
+  <si>
+    <t>XFK147.trim</t>
+  </si>
+  <si>
+    <t>XFK148.trim</t>
+  </si>
+  <si>
+    <t>XFK149.trim</t>
+  </si>
+  <si>
+    <t>XFK150.trim</t>
+  </si>
+  <si>
+    <t>XFK151.trim</t>
+  </si>
+  <si>
+    <t>XFK152.trim</t>
+  </si>
+  <si>
+    <t>XFK153.trim</t>
+  </si>
+  <si>
+    <t>XFK154.trim</t>
+  </si>
+  <si>
+    <t>XFK155.trim</t>
+  </si>
+  <si>
+    <t>XFK156.trim</t>
+  </si>
+  <si>
+    <t>XFK157.trim</t>
+  </si>
+  <si>
+    <t>XFK158.trim</t>
+  </si>
+  <si>
+    <t>XFK159.1.trim</t>
+  </si>
+  <si>
+    <t>XFK159.2.trim</t>
+  </si>
+  <si>
+    <t>XFK160.trim</t>
+  </si>
+  <si>
+    <t>XFK161.trim</t>
+  </si>
+  <si>
+    <t>XFK162.trim</t>
+  </si>
+  <si>
+    <t>XFK163.trim</t>
+  </si>
+  <si>
+    <t>XFK164.trim</t>
+  </si>
+  <si>
+    <t>XFK165.trim</t>
+  </si>
+  <si>
+    <t>XFK166.trim</t>
+  </si>
+  <si>
+    <t>XFK167.trim</t>
+  </si>
+  <si>
+    <t>XFK168.trim</t>
+  </si>
+  <si>
+    <t>XFK169.trim</t>
+  </si>
+  <si>
+    <t>XFK170.trim</t>
+  </si>
+  <si>
+    <t>XFK171.trim</t>
+  </si>
+  <si>
+    <t>XFK172.trim</t>
+  </si>
+  <si>
+    <t>XFK173.trim</t>
+  </si>
+  <si>
+    <t>XFK174.trim</t>
+  </si>
+  <si>
+    <t>XFK175.trim</t>
+  </si>
+  <si>
+    <t>XFK176.trim</t>
+  </si>
+  <si>
+    <t>XFK177.trim</t>
+  </si>
+  <si>
+    <t>XFK178.trim</t>
+  </si>
+  <si>
+    <t>XFK179.trim</t>
+  </si>
+  <si>
+    <t>XFK180.trim</t>
+  </si>
+  <si>
+    <t>XFK181.trim</t>
+  </si>
+  <si>
+    <t>XFK182.trim</t>
+  </si>
+  <si>
+    <t>XFK183.trim</t>
+  </si>
+  <si>
+    <t>XFK184.trim</t>
+  </si>
+  <si>
+    <t>XFK185.trim</t>
+  </si>
+  <si>
+    <t>XFK186.trim</t>
+  </si>
+  <si>
+    <t>XFK187.trim</t>
+  </si>
+  <si>
+    <t>XFK188.trim</t>
+  </si>
+  <si>
+    <t>XFK189.trim</t>
+  </si>
+  <si>
+    <t>XFK190.1.trim</t>
+  </si>
+  <si>
+    <t>XFK190.2.trim</t>
+  </si>
+  <si>
+    <t>XFK190.3.trim</t>
+  </si>
+  <si>
+    <t>XFK191.trim</t>
+  </si>
+  <si>
+    <t>XFK192.trim</t>
+  </si>
+  <si>
+    <t>XFK193.trim</t>
+  </si>
+  <si>
+    <t>XFK194.trim</t>
+  </si>
+  <si>
+    <t>XFK195.trim</t>
+  </si>
+  <si>
+    <t>XFK196.trim</t>
+  </si>
+  <si>
+    <t>XFK197.trim</t>
+  </si>
+  <si>
+    <t>XFK198.trim</t>
+  </si>
+  <si>
+    <t>XFK199.trim</t>
+  </si>
+  <si>
+    <t>XFK200.trim</t>
+  </si>
+  <si>
+    <t>XFK201.trim</t>
+  </si>
+  <si>
+    <t>XFK202.trim</t>
+  </si>
+  <si>
+    <t>XFK203.trim</t>
+  </si>
+  <si>
+    <t>XFK204.trim</t>
+  </si>
+  <si>
+    <t>XFK205.trim</t>
+  </si>
+  <si>
+    <t>XFK206.trim</t>
+  </si>
+  <si>
+    <t>XFK207.trim</t>
+  </si>
+  <si>
+    <t>XFK208.trim</t>
+  </si>
+  <si>
+    <t>XFK209.trim</t>
+  </si>
+  <si>
+    <t>XFK210.trim</t>
+  </si>
+  <si>
+    <t>XFK211.trim</t>
+  </si>
+  <si>
+    <t>XFK212.trim</t>
+  </si>
+  <si>
+    <t>XFK213.trim</t>
+  </si>
+  <si>
+    <t>XFK214.trim</t>
+  </si>
+  <si>
+    <t>XFK215.trim</t>
+  </si>
+  <si>
+    <t>XFK216.trim</t>
+  </si>
+  <si>
+    <t>XFK217.trim</t>
+  </si>
+  <si>
+    <t>XFK218.trim</t>
+  </si>
+  <si>
+    <t>XFK219.trim</t>
+  </si>
+  <si>
+    <t>XFK220.trim</t>
+  </si>
+  <si>
+    <t>XFK221.trim</t>
+  </si>
+  <si>
+    <t>XFK222.trim</t>
+  </si>
+  <si>
+    <t>XFK223.trim</t>
+  </si>
+  <si>
+    <t>XFK224.trim</t>
+  </si>
+  <si>
+    <t>XFK225.trim</t>
+  </si>
+  <si>
+    <t>XFK226.trim</t>
+  </si>
+  <si>
+    <t>XFK227.trim</t>
+  </si>
+  <si>
+    <t>XFK228.trim</t>
+  </si>
+  <si>
+    <t>XFK229.trim</t>
+  </si>
+  <si>
+    <t>XFK230.trim</t>
+  </si>
+  <si>
+    <t>XFK231.trim</t>
+  </si>
+  <si>
+    <t>XFK232.trim</t>
   </si>
 </sst>
 </file>
@@ -2872,7 +2872,7 @@
   <dimension ref="A1:Z379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H379"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>181</v>
+        <v>307</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>307</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>37</v>
@@ -3081,15 +3081,15 @@
         <v>142</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>181</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -3123,15 +3123,15 @@
         <v>143</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>309</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>309</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>37</v>
@@ -3165,15 +3165,15 @@
         <v>143</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>183</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>37</v>
@@ -3207,15 +3207,15 @@
         <v>144</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>185</v>
+        <v>311</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>185</v>
+        <v>311</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>37</v>
@@ -3249,15 +3249,15 @@
         <v>144</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>185</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>186</v>
+        <v>312</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>186</v>
+        <v>312</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>37</v>
@@ -3291,15 +3291,15 @@
         <v>145</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>186</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>37</v>
@@ -3333,15 +3333,15 @@
         <v>146</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>188</v>
+        <v>314</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>188</v>
+        <v>314</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>37</v>
@@ -3375,15 +3375,15 @@
         <v>146</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>188</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>37</v>
@@ -3417,15 +3417,15 @@
         <v>146</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>189</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>190</v>
+        <v>316</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>316</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>37</v>
@@ -3459,15 +3459,15 @@
         <v>147</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>190</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>317</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>317</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>37</v>
@@ -3501,15 +3501,15 @@
         <v>148</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>191</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>37</v>
@@ -3543,15 +3543,15 @@
         <v>148</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>192</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>193</v>
+        <v>319</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>193</v>
+        <v>319</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>37</v>
@@ -3585,15 +3585,15 @@
         <v>149</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>193</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>37</v>
@@ -3627,15 +3627,15 @@
         <v>149</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>37</v>
@@ -3669,15 +3669,15 @@
         <v>149</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>37</v>
@@ -3711,15 +3711,15 @@
         <v>149</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>197</v>
+        <v>323</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>197</v>
+        <v>323</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>37</v>
@@ -3753,15 +3753,15 @@
         <v>149</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>197</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>198</v>
+        <v>324</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>324</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>37</v>
@@ -3795,15 +3795,15 @@
         <v>149</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>198</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>199</v>
+        <v>325</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>199</v>
+        <v>325</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>37</v>
@@ -3837,15 +3837,15 @@
         <v>149</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>199</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>200</v>
+        <v>326</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>200</v>
+        <v>326</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>37</v>
@@ -3879,15 +3879,15 @@
         <v>149</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>200</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>201</v>
+        <v>327</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>201</v>
+        <v>327</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>37</v>
@@ -3921,15 +3921,15 @@
         <v>150</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>201</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>37</v>
@@ -3963,15 +3963,15 @@
         <v>150</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>202</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>203</v>
+        <v>329</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>203</v>
+        <v>329</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>37</v>
@@ -4005,15 +4005,15 @@
         <v>150</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>203</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>37</v>
@@ -4047,15 +4047,15 @@
         <v>150</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>204</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>205</v>
+        <v>331</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>205</v>
+        <v>331</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>37</v>
@@ -4089,15 +4089,15 @@
         <v>150</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>205</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>37</v>
@@ -4131,15 +4131,15 @@
         <v>150</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>37</v>
@@ -4173,15 +4173,15 @@
         <v>150</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>207</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>208</v>
+        <v>334</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>208</v>
+        <v>334</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>37</v>
@@ -4215,15 +4215,15 @@
         <v>150</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>208</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>37</v>
@@ -4257,15 +4257,15 @@
         <v>150</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>210</v>
+        <v>336</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>210</v>
+        <v>336</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>37</v>
@@ -4299,15 +4299,15 @@
         <v>150</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>210</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>37</v>
@@ -4341,15 +4341,15 @@
         <v>150</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>211</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>37</v>
@@ -4383,15 +4383,15 @@
         <v>150</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>212</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>37</v>
@@ -4425,15 +4425,15 @@
         <v>150</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>37</v>
@@ -4467,15 +4467,15 @@
         <v>150</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>37</v>
@@ -4509,15 +4509,15 @@
         <v>150</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>215</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>37</v>
@@ -4551,15 +4551,15 @@
         <v>150</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>217</v>
+        <v>343</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>217</v>
+        <v>343</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>37</v>
@@ -4593,15 +4593,15 @@
         <v>150</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>217</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>37</v>
@@ -4635,15 +4635,15 @@
         <v>150</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>219</v>
+        <v>345</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>219</v>
+        <v>345</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>37</v>
@@ -4677,15 +4677,15 @@
         <v>150</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>219</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>220</v>
+        <v>346</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>220</v>
+        <v>346</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>37</v>
@@ -4719,15 +4719,15 @@
         <v>150</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>220</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>221</v>
+        <v>347</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>221</v>
+        <v>347</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>37</v>
@@ -4761,15 +4761,15 @@
         <v>150</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>221</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>222</v>
+        <v>348</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>222</v>
+        <v>348</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>37</v>
@@ -4803,15 +4803,15 @@
         <v>150</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>222</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>223</v>
+        <v>349</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>223</v>
+        <v>349</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>37</v>
@@ -4845,15 +4845,15 @@
         <v>150</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>223</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>224</v>
+        <v>350</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>224</v>
+        <v>350</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>37</v>
@@ -4887,15 +4887,15 @@
         <v>150</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>224</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>225</v>
+        <v>351</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>225</v>
+        <v>351</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>37</v>
@@ -4929,15 +4929,15 @@
         <v>150</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>225</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>226</v>
+        <v>352</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>226</v>
+        <v>352</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>37</v>
@@ -4971,15 +4971,15 @@
         <v>151</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>226</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>37</v>
@@ -5013,15 +5013,15 @@
         <v>151</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>227</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>37</v>
@@ -5055,15 +5055,15 @@
         <v>151</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>228</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>229</v>
+        <v>355</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>229</v>
+        <v>355</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>37</v>
@@ -5097,15 +5097,15 @@
         <v>151</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>229</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>230</v>
+        <v>356</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>230</v>
+        <v>356</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>37</v>
@@ -5139,15 +5139,15 @@
         <v>151</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>230</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>231</v>
+        <v>357</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>231</v>
+        <v>357</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>37</v>
@@ -5181,15 +5181,15 @@
         <v>151</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>231</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>37</v>
@@ -5223,15 +5223,15 @@
         <v>151</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>37</v>
@@ -5265,15 +5265,15 @@
         <v>151</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>234</v>
+        <v>360</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>234</v>
+        <v>360</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>37</v>
@@ -5307,15 +5307,15 @@
         <v>151</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>234</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>37</v>
@@ -5349,15 +5349,15 @@
         <v>151</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>236</v>
+        <v>362</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>236</v>
+        <v>362</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>37</v>
@@ -5391,15 +5391,15 @@
         <v>151</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>236</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>237</v>
+        <v>363</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>237</v>
+        <v>363</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>37</v>
@@ -5433,15 +5433,15 @@
         <v>151</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>237</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>37</v>
@@ -5475,15 +5475,15 @@
         <v>151</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>37</v>
@@ -5517,15 +5517,15 @@
         <v>151</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>240</v>
+        <v>366</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>240</v>
+        <v>366</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>37</v>
@@ -5559,15 +5559,15 @@
         <v>151</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>240</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>241</v>
+        <v>367</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>241</v>
+        <v>367</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>37</v>
@@ -5601,15 +5601,15 @@
         <v>151</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>241</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>37</v>
@@ -5643,15 +5643,15 @@
         <v>151</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>242</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>37</v>
@@ -5685,15 +5685,15 @@
         <v>151</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>243</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>244</v>
+        <v>370</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>244</v>
+        <v>370</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>37</v>
@@ -5727,15 +5727,15 @@
         <v>151</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>244</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>245</v>
+        <v>371</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>245</v>
+        <v>371</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>37</v>
@@ -5769,15 +5769,15 @@
         <v>151</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>245</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>246</v>
+        <v>372</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>246</v>
+        <v>372</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>37</v>
@@ -5811,15 +5811,15 @@
         <v>152</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>246</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>247</v>
+        <v>373</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>247</v>
+        <v>373</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>37</v>
@@ -5853,15 +5853,15 @@
         <v>152</v>
       </c>
       <c r="Z80" s="1" t="s">
-        <v>247</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>248</v>
+        <v>374</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>248</v>
+        <v>374</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>37</v>
@@ -5895,15 +5895,15 @@
         <v>152</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>248</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>37</v>
@@ -5937,15 +5937,15 @@
         <v>152</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>250</v>
+        <v>376</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>250</v>
+        <v>376</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>37</v>
@@ -5979,15 +5979,15 @@
         <v>152</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>250</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>37</v>
@@ -6021,15 +6021,15 @@
         <v>152</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>37</v>
@@ -6063,15 +6063,15 @@
         <v>152</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>37</v>
@@ -6105,15 +6105,15 @@
         <v>152</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>254</v>
+        <v>380</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>254</v>
+        <v>380</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>37</v>
@@ -6147,15 +6147,15 @@
         <v>152</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>254</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>255</v>
+        <v>381</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>255</v>
+        <v>381</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>37</v>
@@ -6189,15 +6189,15 @@
         <v>152</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>255</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>37</v>
@@ -6231,15 +6231,15 @@
         <v>153</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>257</v>
+        <v>383</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>257</v>
+        <v>383</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>37</v>
@@ -6273,15 +6273,15 @@
         <v>153</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>257</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>258</v>
+        <v>384</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>258</v>
+        <v>384</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>37</v>
@@ -6315,15 +6315,15 @@
         <v>153</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>258</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>259</v>
+        <v>385</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>259</v>
+        <v>385</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>37</v>
@@ -6357,15 +6357,15 @@
         <v>153</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>259</v>
+        <v>385</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>260</v>
+        <v>386</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>260</v>
+        <v>386</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>37</v>
@@ -6399,15 +6399,15 @@
         <v>153</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>260</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>261</v>
+        <v>387</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>261</v>
+        <v>387</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>37</v>
@@ -6441,15 +6441,15 @@
         <v>153</v>
       </c>
       <c r="Z94" s="1" t="s">
-        <v>261</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>262</v>
+        <v>388</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>262</v>
+        <v>388</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>37</v>
@@ -6483,15 +6483,15 @@
         <v>153</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>262</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>263</v>
+        <v>389</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>263</v>
+        <v>389</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>37</v>
@@ -6525,15 +6525,15 @@
         <v>153</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>263</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>264</v>
+        <v>390</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>264</v>
+        <v>390</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>37</v>
@@ -6567,15 +6567,15 @@
         <v>153</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>264</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>37</v>
@@ -6609,15 +6609,15 @@
         <v>153</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>266</v>
+        <v>392</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>266</v>
+        <v>392</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>37</v>
@@ -6651,15 +6651,15 @@
         <v>153</v>
       </c>
       <c r="Z99" s="1" t="s">
-        <v>266</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>267</v>
+        <v>393</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>267</v>
+        <v>393</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>37</v>
@@ -6693,15 +6693,15 @@
         <v>153</v>
       </c>
       <c r="Z100" s="1" t="s">
-        <v>267</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>268</v>
+        <v>394</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>268</v>
+        <v>394</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>37</v>
@@ -6735,15 +6735,15 @@
         <v>153</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>268</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>269</v>
+        <v>395</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>269</v>
+        <v>395</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>37</v>
@@ -6777,15 +6777,15 @@
         <v>153</v>
       </c>
       <c r="Z102" s="1" t="s">
-        <v>269</v>
+        <v>395</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>270</v>
+        <v>396</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>270</v>
+        <v>396</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>37</v>
@@ -6819,15 +6819,15 @@
         <v>153</v>
       </c>
       <c r="Z103" s="1" t="s">
-        <v>270</v>
+        <v>396</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>271</v>
+        <v>397</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>271</v>
+        <v>397</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>37</v>
@@ -6861,15 +6861,15 @@
         <v>153</v>
       </c>
       <c r="Z104" s="1" t="s">
-        <v>271</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>272</v>
+        <v>398</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>272</v>
+        <v>398</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>37</v>
@@ -6903,15 +6903,15 @@
         <v>153</v>
       </c>
       <c r="Z105" s="1" t="s">
-        <v>272</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>273</v>
+        <v>399</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>273</v>
+        <v>399</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>37</v>
@@ -6945,15 +6945,15 @@
         <v>153</v>
       </c>
       <c r="Z106" s="1" t="s">
-        <v>273</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>274</v>
+        <v>400</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>274</v>
+        <v>400</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>37</v>
@@ -6987,15 +6987,15 @@
         <v>153</v>
       </c>
       <c r="Z107" s="1" t="s">
-        <v>274</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>275</v>
+        <v>401</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>275</v>
+        <v>401</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>37</v>
@@ -7029,15 +7029,15 @@
         <v>153</v>
       </c>
       <c r="Z108" s="1" t="s">
-        <v>275</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>276</v>
+        <v>402</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>276</v>
+        <v>402</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>37</v>
@@ -7071,15 +7071,15 @@
         <v>153</v>
       </c>
       <c r="Z109" s="1" t="s">
-        <v>276</v>
+        <v>402</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>277</v>
+        <v>403</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>277</v>
+        <v>403</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>37</v>
@@ -7113,15 +7113,15 @@
         <v>153</v>
       </c>
       <c r="Z110" s="1" t="s">
-        <v>277</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>278</v>
+        <v>404</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>278</v>
+        <v>404</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>37</v>
@@ -7155,15 +7155,15 @@
         <v>153</v>
       </c>
       <c r="Z111" s="1" t="s">
-        <v>278</v>
+        <v>404</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>279</v>
+        <v>405</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>279</v>
+        <v>405</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>37</v>
@@ -7197,15 +7197,15 @@
         <v>153</v>
       </c>
       <c r="Z112" s="1" t="s">
-        <v>279</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>280</v>
+        <v>406</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>280</v>
+        <v>406</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>37</v>
@@ -7239,15 +7239,15 @@
         <v>153</v>
       </c>
       <c r="Z113" s="1" t="s">
-        <v>280</v>
+        <v>406</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>281</v>
+        <v>407</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>281</v>
+        <v>407</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>37</v>
@@ -7281,15 +7281,15 @@
         <v>153</v>
       </c>
       <c r="Z114" s="1" t="s">
-        <v>281</v>
+        <v>407</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>282</v>
+        <v>408</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>282</v>
+        <v>408</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>37</v>
@@ -7323,15 +7323,15 @@
         <v>153</v>
       </c>
       <c r="Z115" s="1" t="s">
-        <v>282</v>
+        <v>408</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>283</v>
+        <v>409</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>283</v>
+        <v>409</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>37</v>
@@ -7365,15 +7365,15 @@
         <v>153</v>
       </c>
       <c r="Z116" s="1" t="s">
-        <v>283</v>
+        <v>409</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>37</v>
@@ -7407,15 +7407,15 @@
         <v>154</v>
       </c>
       <c r="Z117" s="1" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>285</v>
+        <v>411</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>285</v>
+        <v>411</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>37</v>
@@ -7449,15 +7449,15 @@
         <v>154</v>
       </c>
       <c r="Z118" s="1" t="s">
-        <v>285</v>
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>286</v>
+        <v>412</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>286</v>
+        <v>412</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>37</v>
@@ -7491,15 +7491,15 @@
         <v>154</v>
       </c>
       <c r="Z119" s="1" t="s">
-        <v>286</v>
+        <v>412</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>287</v>
+        <v>413</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>287</v>
+        <v>413</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>37</v>
@@ -7533,15 +7533,15 @@
         <v>154</v>
       </c>
       <c r="Z120" s="1" t="s">
-        <v>287</v>
+        <v>413</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>37</v>
@@ -7575,15 +7575,15 @@
         <v>154</v>
       </c>
       <c r="Z121" s="1" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>37</v>
@@ -7617,15 +7617,15 @@
         <v>154</v>
       </c>
       <c r="Z122" s="1" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>290</v>
+        <v>416</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>290</v>
+        <v>416</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>37</v>
@@ -7659,15 +7659,15 @@
         <v>154</v>
       </c>
       <c r="Z123" s="1" t="s">
-        <v>290</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>37</v>
@@ -7701,15 +7701,15 @@
         <v>154</v>
       </c>
       <c r="Z124" s="1" t="s">
-        <v>291</v>
+        <v>417</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>37</v>
@@ -7743,15 +7743,15 @@
         <v>154</v>
       </c>
       <c r="Z125" s="1" t="s">
-        <v>292</v>
+        <v>418</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>37</v>
@@ -7785,15 +7785,15 @@
         <v>155</v>
       </c>
       <c r="Z126" s="1" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>37</v>
@@ -7827,15 +7827,15 @@
         <v>155</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>37</v>
@@ -7869,15 +7869,15 @@
         <v>156</v>
       </c>
       <c r="Z128" s="1" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>296</v>
+        <v>422</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>296</v>
+        <v>422</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>37</v>
@@ -7911,15 +7911,15 @@
         <v>156</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>296</v>
+        <v>422</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>297</v>
+        <v>423</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>297</v>
+        <v>423</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>37</v>
@@ -7953,15 +7953,15 @@
         <v>156</v>
       </c>
       <c r="Z130" s="1" t="s">
-        <v>297</v>
+        <v>423</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>298</v>
+        <v>424</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>298</v>
+        <v>424</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>37</v>
@@ -7995,15 +7995,15 @@
         <v>156</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>298</v>
+        <v>424</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>299</v>
+        <v>425</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>299</v>
+        <v>425</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>37</v>
@@ -8037,15 +8037,15 @@
         <v>156</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>299</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>37</v>
@@ -8079,15 +8079,15 @@
         <v>156</v>
       </c>
       <c r="Z133" s="1" t="s">
-        <v>300</v>
+        <v>426</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>301</v>
+        <v>427</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>301</v>
+        <v>427</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>37</v>
@@ -8121,15 +8121,15 @@
         <v>156</v>
       </c>
       <c r="Z134" s="1" t="s">
-        <v>301</v>
+        <v>427</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>37</v>
@@ -8163,15 +8163,15 @@
         <v>156</v>
       </c>
       <c r="Z135" s="1" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>303</v>
+        <v>429</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>303</v>
+        <v>429</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>37</v>
@@ -8205,15 +8205,15 @@
         <v>156</v>
       </c>
       <c r="Z136" s="1" t="s">
-        <v>303</v>
+        <v>429</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>304</v>
+        <v>430</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>304</v>
+        <v>430</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>37</v>
@@ -8247,15 +8247,15 @@
         <v>156</v>
       </c>
       <c r="Z137" s="1" t="s">
-        <v>304</v>
+        <v>430</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>305</v>
+        <v>431</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>305</v>
+        <v>431</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>37</v>
@@ -8289,15 +8289,15 @@
         <v>156</v>
       </c>
       <c r="Z138" s="1" t="s">
-        <v>305</v>
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>306</v>
+        <v>432</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>306</v>
+        <v>432</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>37</v>
@@ -8331,15 +8331,15 @@
         <v>156</v>
       </c>
       <c r="Z139" s="1" t="s">
-        <v>306</v>
+        <v>432</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>307</v>
+        <v>433</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>307</v>
+        <v>433</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>37</v>
@@ -8373,15 +8373,15 @@
         <v>156</v>
       </c>
       <c r="Z140" s="1" t="s">
-        <v>307</v>
+        <v>433</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>308</v>
+        <v>434</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>308</v>
+        <v>434</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>37</v>
@@ -8415,15 +8415,15 @@
         <v>157</v>
       </c>
       <c r="Z141" s="1" t="s">
-        <v>308</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>309</v>
+        <v>435</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>309</v>
+        <v>435</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>37</v>
@@ -8457,15 +8457,15 @@
         <v>157</v>
       </c>
       <c r="Z142" s="1" t="s">
-        <v>309</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>37</v>
@@ -8499,15 +8499,15 @@
         <v>157</v>
       </c>
       <c r="Z143" s="1" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>311</v>
+        <v>437</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>311</v>
+        <v>437</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>37</v>
@@ -8541,15 +8541,15 @@
         <v>157</v>
       </c>
       <c r="Z144" s="1" t="s">
-        <v>311</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>312</v>
+        <v>438</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>312</v>
+        <v>438</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>37</v>
@@ -8583,15 +8583,15 @@
         <v>157</v>
       </c>
       <c r="Z145" s="1" t="s">
-        <v>312</v>
+        <v>438</v>
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>37</v>
@@ -8625,15 +8625,15 @@
         <v>157</v>
       </c>
       <c r="Z146" s="1" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>314</v>
+        <v>440</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>314</v>
+        <v>440</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>37</v>
@@ -8667,15 +8667,15 @@
         <v>157</v>
       </c>
       <c r="Z147" s="1" t="s">
-        <v>314</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>315</v>
+        <v>441</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>315</v>
+        <v>441</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>37</v>
@@ -8709,15 +8709,15 @@
         <v>157</v>
       </c>
       <c r="Z148" s="1" t="s">
-        <v>315</v>
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>316</v>
+        <v>442</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>316</v>
+        <v>442</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>37</v>
@@ -8751,15 +8751,15 @@
         <v>157</v>
       </c>
       <c r="Z149" s="1" t="s">
-        <v>316</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>37</v>
@@ -8793,15 +8793,15 @@
         <v>157</v>
       </c>
       <c r="Z150" s="1" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>37</v>
@@ -8835,15 +8835,15 @@
         <v>157</v>
       </c>
       <c r="Z151" s="1" t="s">
-        <v>318</v>
+        <v>444</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>37</v>
@@ -8877,15 +8877,15 @@
         <v>157</v>
       </c>
       <c r="Z152" s="1" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>37</v>
@@ -8919,15 +8919,15 @@
         <v>157</v>
       </c>
       <c r="Z153" s="1" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>321</v>
+        <v>447</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>321</v>
+        <v>447</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>37</v>
@@ -8961,15 +8961,15 @@
         <v>157</v>
       </c>
       <c r="Z154" s="1" t="s">
-        <v>321</v>
+        <v>447</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>322</v>
+        <v>448</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>322</v>
+        <v>448</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>37</v>
@@ -9003,15 +9003,15 @@
         <v>157</v>
       </c>
       <c r="Z155" s="1" t="s">
-        <v>322</v>
+        <v>448</v>
       </c>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>323</v>
+        <v>449</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>323</v>
+        <v>449</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>37</v>
@@ -9045,15 +9045,15 @@
         <v>157</v>
       </c>
       <c r="Z156" s="1" t="s">
-        <v>323</v>
+        <v>449</v>
       </c>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>324</v>
+        <v>450</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>324</v>
+        <v>450</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>37</v>
@@ -9087,15 +9087,15 @@
         <v>157</v>
       </c>
       <c r="Z157" s="1" t="s">
-        <v>324</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>325</v>
+        <v>451</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>325</v>
+        <v>451</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>37</v>
@@ -9129,15 +9129,15 @@
         <v>157</v>
       </c>
       <c r="Z158" s="1" t="s">
-        <v>325</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>326</v>
+        <v>452</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>326</v>
+        <v>452</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>37</v>
@@ -9171,15 +9171,15 @@
         <v>157</v>
       </c>
       <c r="Z159" s="1" t="s">
-        <v>326</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>327</v>
+        <v>453</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>327</v>
+        <v>453</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>37</v>
@@ -9213,15 +9213,15 @@
         <v>157</v>
       </c>
       <c r="Z160" s="1" t="s">
-        <v>327</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>328</v>
+        <v>454</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>328</v>
+        <v>454</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>37</v>
@@ -9255,15 +9255,15 @@
         <v>157</v>
       </c>
       <c r="Z161" s="1" t="s">
-        <v>328</v>
+        <v>454</v>
       </c>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>329</v>
+        <v>455</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>329</v>
+        <v>455</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>37</v>
@@ -9297,15 +9297,15 @@
         <v>157</v>
       </c>
       <c r="Z162" s="1" t="s">
-        <v>329</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>37</v>
@@ -9339,15 +9339,15 @@
         <v>157</v>
       </c>
       <c r="Z163" s="1" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>331</v>
+        <v>457</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>331</v>
+        <v>457</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>37</v>
@@ -9381,15 +9381,15 @@
         <v>158</v>
       </c>
       <c r="Z164" s="1" t="s">
-        <v>331</v>
+        <v>457</v>
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>37</v>
@@ -9423,15 +9423,15 @@
         <v>158</v>
       </c>
       <c r="Z165" s="1" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>333</v>
+        <v>459</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>333</v>
+        <v>459</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>37</v>
@@ -9465,15 +9465,15 @@
         <v>158</v>
       </c>
       <c r="Z166" s="1" t="s">
-        <v>333</v>
+        <v>459</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>334</v>
+        <v>460</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>334</v>
+        <v>460</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>37</v>
@@ -9507,15 +9507,15 @@
         <v>158</v>
       </c>
       <c r="Z167" s="1" t="s">
-        <v>334</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>335</v>
+        <v>461</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>335</v>
+        <v>461</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>37</v>
@@ -9549,15 +9549,15 @@
         <v>158</v>
       </c>
       <c r="Z168" s="1" t="s">
-        <v>335</v>
+        <v>461</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>37</v>
@@ -9591,15 +9591,15 @@
         <v>158</v>
       </c>
       <c r="Z169" s="1" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>337</v>
+        <v>463</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>337</v>
+        <v>463</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>37</v>
@@ -9633,15 +9633,15 @@
         <v>158</v>
       </c>
       <c r="Z170" s="1" t="s">
-        <v>337</v>
+        <v>463</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>338</v>
+        <v>464</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>338</v>
+        <v>464</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>37</v>
@@ -9675,15 +9675,15 @@
         <v>158</v>
       </c>
       <c r="Z171" s="1" t="s">
-        <v>338</v>
+        <v>464</v>
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>339</v>
+        <v>465</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>339</v>
+        <v>465</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>37</v>
@@ -9717,15 +9717,15 @@
         <v>158</v>
       </c>
       <c r="Z172" s="1" t="s">
-        <v>339</v>
+        <v>465</v>
       </c>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>340</v>
+        <v>466</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>340</v>
+        <v>466</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>37</v>
@@ -9759,15 +9759,15 @@
         <v>158</v>
       </c>
       <c r="Z173" s="1" t="s">
-        <v>340</v>
+        <v>466</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>341</v>
+        <v>467</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>341</v>
+        <v>467</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>37</v>
@@ -9801,15 +9801,15 @@
         <v>158</v>
       </c>
       <c r="Z174" s="1" t="s">
-        <v>341</v>
+        <v>467</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>342</v>
+        <v>468</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>342</v>
+        <v>468</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>37</v>
@@ -9843,15 +9843,15 @@
         <v>158</v>
       </c>
       <c r="Z175" s="1" t="s">
-        <v>342</v>
+        <v>468</v>
       </c>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>343</v>
+        <v>469</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>343</v>
+        <v>469</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>37</v>
@@ -9885,15 +9885,15 @@
         <v>158</v>
       </c>
       <c r="Z176" s="1" t="s">
-        <v>343</v>
+        <v>469</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>344</v>
+        <v>470</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>344</v>
+        <v>470</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>37</v>
@@ -9927,15 +9927,15 @@
         <v>158</v>
       </c>
       <c r="Z177" s="1" t="s">
-        <v>344</v>
+        <v>470</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>37</v>
@@ -9969,15 +9969,15 @@
         <v>158</v>
       </c>
       <c r="Z178" s="1" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>346</v>
+        <v>472</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>346</v>
+        <v>472</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>37</v>
@@ -10011,15 +10011,15 @@
         <v>158</v>
       </c>
       <c r="Z179" s="1" t="s">
-        <v>346</v>
+        <v>472</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>347</v>
+        <v>473</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>347</v>
+        <v>473</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>37</v>
@@ -10053,15 +10053,15 @@
         <v>158</v>
       </c>
       <c r="Z180" s="1" t="s">
-        <v>347</v>
+        <v>473</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>348</v>
+        <v>474</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>348</v>
+        <v>474</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>37</v>
@@ -10095,15 +10095,15 @@
         <v>158</v>
       </c>
       <c r="Z181" s="1" t="s">
-        <v>348</v>
+        <v>474</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>349</v>
+        <v>475</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>349</v>
+        <v>475</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>37</v>
@@ -10137,15 +10137,15 @@
         <v>158</v>
       </c>
       <c r="Z182" s="1" t="s">
-        <v>349</v>
+        <v>475</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>350</v>
+        <v>476</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>350</v>
+        <v>476</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>37</v>
@@ -10179,15 +10179,15 @@
         <v>158</v>
       </c>
       <c r="Z183" s="1" t="s">
-        <v>350</v>
+        <v>476</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>351</v>
+        <v>477</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>351</v>
+        <v>477</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>37</v>
@@ -10221,15 +10221,15 @@
         <v>158</v>
       </c>
       <c r="Z184" s="1" t="s">
-        <v>351</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>352</v>
+        <v>478</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>352</v>
+        <v>478</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>37</v>
@@ -10263,15 +10263,15 @@
         <v>158</v>
       </c>
       <c r="Z185" s="1" t="s">
-        <v>352</v>
+        <v>478</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>353</v>
+        <v>479</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>353</v>
+        <v>479</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>37</v>
@@ -10305,15 +10305,15 @@
         <v>158</v>
       </c>
       <c r="Z186" s="1" t="s">
-        <v>353</v>
+        <v>479</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>354</v>
+        <v>480</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>354</v>
+        <v>480</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>37</v>
@@ -10347,15 +10347,15 @@
         <v>158</v>
       </c>
       <c r="Z187" s="1" t="s">
-        <v>354</v>
+        <v>480</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>355</v>
+        <v>481</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>355</v>
+        <v>481</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>37</v>
@@ -10389,15 +10389,15 @@
         <v>158</v>
       </c>
       <c r="Z188" s="1" t="s">
-        <v>355</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>37</v>
@@ -10431,15 +10431,15 @@
         <v>158</v>
       </c>
       <c r="Z189" s="1" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>357</v>
+        <v>483</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>357</v>
+        <v>483</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>37</v>
@@ -10473,15 +10473,15 @@
         <v>158</v>
       </c>
       <c r="Z190" s="1" t="s">
-        <v>357</v>
+        <v>483</v>
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>358</v>
+        <v>484</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>358</v>
+        <v>484</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>37</v>
@@ -10515,15 +10515,15 @@
         <v>158</v>
       </c>
       <c r="Z191" s="1" t="s">
-        <v>358</v>
+        <v>484</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>359</v>
+        <v>485</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>359</v>
+        <v>485</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>37</v>
@@ -10557,15 +10557,15 @@
         <v>158</v>
       </c>
       <c r="Z192" s="1" t="s">
-        <v>359</v>
+        <v>485</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>360</v>
+        <v>486</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>360</v>
+        <v>486</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>37</v>
@@ -10599,15 +10599,15 @@
         <v>158</v>
       </c>
       <c r="Z193" s="1" t="s">
-        <v>360</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>361</v>
+        <v>487</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>361</v>
+        <v>487</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>37</v>
@@ -10641,15 +10641,15 @@
         <v>159</v>
       </c>
       <c r="Z194" s="1" t="s">
-        <v>361</v>
+        <v>487</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>362</v>
+        <v>488</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>362</v>
+        <v>488</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>37</v>
@@ -10683,15 +10683,15 @@
         <v>159</v>
       </c>
       <c r="Z195" s="1" t="s">
-        <v>362</v>
+        <v>488</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>363</v>
+        <v>489</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>363</v>
+        <v>489</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>37</v>
@@ -10725,15 +10725,15 @@
         <v>159</v>
       </c>
       <c r="Z196" s="1" t="s">
-        <v>363</v>
+        <v>489</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>364</v>
+        <v>490</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>364</v>
+        <v>490</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>37</v>
@@ -10767,15 +10767,15 @@
         <v>159</v>
       </c>
       <c r="Z197" s="1" t="s">
-        <v>364</v>
+        <v>490</v>
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>365</v>
+        <v>491</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>365</v>
+        <v>491</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>37</v>
@@ -10809,15 +10809,15 @@
         <v>159</v>
       </c>
       <c r="Z198" s="1" t="s">
-        <v>365</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>37</v>
@@ -10851,15 +10851,15 @@
         <v>159</v>
       </c>
       <c r="Z199" s="1" t="s">
-        <v>366</v>
+        <v>492</v>
       </c>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>367</v>
+        <v>493</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>367</v>
+        <v>493</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>37</v>
@@ -10893,15 +10893,15 @@
         <v>159</v>
       </c>
       <c r="Z200" s="1" t="s">
-        <v>367</v>
+        <v>493</v>
       </c>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>37</v>
@@ -10935,15 +10935,15 @@
         <v>160</v>
       </c>
       <c r="Z201" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>369</v>
+        <v>495</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>369</v>
+        <v>495</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>37</v>
@@ -10977,15 +10977,15 @@
         <v>160</v>
       </c>
       <c r="Z202" s="1" t="s">
-        <v>369</v>
+        <v>495</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>370</v>
+        <v>496</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>370</v>
+        <v>496</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>37</v>
@@ -11019,15 +11019,15 @@
         <v>160</v>
       </c>
       <c r="Z203" s="1" t="s">
-        <v>370</v>
+        <v>496</v>
       </c>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>371</v>
+        <v>497</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>371</v>
+        <v>497</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>37</v>
@@ -11061,15 +11061,15 @@
         <v>160</v>
       </c>
       <c r="Z204" s="1" t="s">
-        <v>371</v>
+        <v>497</v>
       </c>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>372</v>
+        <v>498</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>372</v>
+        <v>498</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>37</v>
@@ -11103,15 +11103,15 @@
         <v>160</v>
       </c>
       <c r="Z205" s="1" t="s">
-        <v>372</v>
+        <v>498</v>
       </c>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>373</v>
+        <v>499</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>373</v>
+        <v>499</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>37</v>
@@ -11145,15 +11145,15 @@
         <v>160</v>
       </c>
       <c r="Z206" s="1" t="s">
-        <v>373</v>
+        <v>499</v>
       </c>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>37</v>
@@ -11187,15 +11187,15 @@
         <v>160</v>
       </c>
       <c r="Z207" s="1" t="s">
-        <v>374</v>
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>375</v>
+        <v>501</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>375</v>
+        <v>501</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>37</v>
@@ -11229,15 +11229,15 @@
         <v>160</v>
       </c>
       <c r="Z208" s="1" t="s">
-        <v>375</v>
+        <v>501</v>
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>37</v>
@@ -11271,15 +11271,15 @@
         <v>161</v>
       </c>
       <c r="Z209" s="1" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>377</v>
+        <v>503</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>377</v>
+        <v>503</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>37</v>
@@ -11313,15 +11313,15 @@
         <v>161</v>
       </c>
       <c r="Z210" s="1" t="s">
-        <v>377</v>
+        <v>503</v>
       </c>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>378</v>
+        <v>504</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>378</v>
+        <v>504</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>37</v>
@@ -11355,15 +11355,15 @@
         <v>161</v>
       </c>
       <c r="Z211" s="1" t="s">
-        <v>378</v>
+        <v>504</v>
       </c>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>379</v>
+        <v>505</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>379</v>
+        <v>505</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>37</v>
@@ -11397,15 +11397,15 @@
         <v>161</v>
       </c>
       <c r="Z212" s="1" t="s">
-        <v>379</v>
+        <v>505</v>
       </c>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>380</v>
+        <v>506</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>380</v>
+        <v>506</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>37</v>
@@ -11439,15 +11439,15 @@
         <v>161</v>
       </c>
       <c r="Z213" s="1" t="s">
-        <v>380</v>
+        <v>506</v>
       </c>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>381</v>
+        <v>507</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>381</v>
+        <v>507</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>37</v>
@@ -11481,15 +11481,15 @@
         <v>161</v>
       </c>
       <c r="Z214" s="1" t="s">
-        <v>381</v>
+        <v>507</v>
       </c>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>382</v>
+        <v>508</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>382</v>
+        <v>508</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>37</v>
@@ -11523,15 +11523,15 @@
         <v>161</v>
       </c>
       <c r="Z215" s="1" t="s">
-        <v>382</v>
+        <v>508</v>
       </c>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>383</v>
+        <v>509</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>383</v>
+        <v>509</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>37</v>
@@ -11565,15 +11565,15 @@
         <v>161</v>
       </c>
       <c r="Z216" s="1" t="s">
-        <v>383</v>
+        <v>509</v>
       </c>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>384</v>
+        <v>510</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>384</v>
+        <v>510</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>37</v>
@@ -11607,15 +11607,15 @@
         <v>161</v>
       </c>
       <c r="Z217" s="1" t="s">
-        <v>384</v>
+        <v>510</v>
       </c>
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>385</v>
+        <v>511</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>385</v>
+        <v>511</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>37</v>
@@ -11649,15 +11649,15 @@
         <v>161</v>
       </c>
       <c r="Z218" s="1" t="s">
-        <v>385</v>
+        <v>511</v>
       </c>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>386</v>
+        <v>512</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>386</v>
+        <v>512</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>37</v>
@@ -11691,15 +11691,15 @@
         <v>162</v>
       </c>
       <c r="Z219" s="1" t="s">
-        <v>386</v>
+        <v>512</v>
       </c>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>387</v>
+        <v>513</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>387</v>
+        <v>513</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>37</v>
@@ -11733,15 +11733,15 @@
         <v>162</v>
       </c>
       <c r="Z220" s="1" t="s">
-        <v>387</v>
+        <v>513</v>
       </c>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>388</v>
+        <v>514</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>388</v>
+        <v>514</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>37</v>
@@ -11775,15 +11775,15 @@
         <v>162</v>
       </c>
       <c r="Z221" s="1" t="s">
-        <v>388</v>
+        <v>514</v>
       </c>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>37</v>
@@ -11817,15 +11817,15 @@
         <v>162</v>
       </c>
       <c r="Z222" s="1" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>390</v>
+        <v>516</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>390</v>
+        <v>516</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>37</v>
@@ -11859,15 +11859,15 @@
         <v>162</v>
       </c>
       <c r="Z223" s="1" t="s">
-        <v>390</v>
+        <v>516</v>
       </c>
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>391</v>
+        <v>517</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>391</v>
+        <v>517</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>37</v>
@@ -11901,15 +11901,15 @@
         <v>162</v>
       </c>
       <c r="Z224" s="1" t="s">
-        <v>391</v>
+        <v>517</v>
       </c>
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>392</v>
+        <v>518</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>392</v>
+        <v>518</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>37</v>
@@ -11943,15 +11943,15 @@
         <v>163</v>
       </c>
       <c r="Z225" s="1" t="s">
-        <v>392</v>
+        <v>518</v>
       </c>
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>393</v>
+        <v>519</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>393</v>
+        <v>519</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>37</v>
@@ -11985,15 +11985,15 @@
         <v>163</v>
       </c>
       <c r="Z226" s="1" t="s">
-        <v>393</v>
+        <v>519</v>
       </c>
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>394</v>
+        <v>520</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>394</v>
+        <v>520</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>37</v>
@@ -12027,15 +12027,15 @@
         <v>163</v>
       </c>
       <c r="Z227" s="1" t="s">
-        <v>394</v>
+        <v>520</v>
       </c>
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>395</v>
+        <v>521</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>395</v>
+        <v>521</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>37</v>
@@ -12069,15 +12069,15 @@
         <v>163</v>
       </c>
       <c r="Z228" s="1" t="s">
-        <v>395</v>
+        <v>521</v>
       </c>
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>37</v>
@@ -12111,15 +12111,15 @@
         <v>163</v>
       </c>
       <c r="Z229" s="1" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>397</v>
+        <v>523</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>397</v>
+        <v>523</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>37</v>
@@ -12153,15 +12153,15 @@
         <v>163</v>
       </c>
       <c r="Z230" s="1" t="s">
-        <v>397</v>
+        <v>523</v>
       </c>
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>398</v>
+        <v>524</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>398</v>
+        <v>524</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>37</v>
@@ -12195,15 +12195,15 @@
         <v>163</v>
       </c>
       <c r="Z231" s="1" t="s">
-        <v>398</v>
+        <v>524</v>
       </c>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>399</v>
+        <v>525</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>399</v>
+        <v>525</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>37</v>
@@ -12237,15 +12237,15 @@
         <v>164</v>
       </c>
       <c r="Z232" s="1" t="s">
-        <v>399</v>
+        <v>525</v>
       </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>37</v>
@@ -12279,15 +12279,15 @@
         <v>164</v>
       </c>
       <c r="Z233" s="1" t="s">
-        <v>400</v>
+        <v>526</v>
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>37</v>
@@ -12321,15 +12321,15 @@
         <v>164</v>
       </c>
       <c r="Z234" s="1" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>402</v>
+        <v>528</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>402</v>
+        <v>528</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>37</v>
@@ -12363,15 +12363,15 @@
         <v>165</v>
       </c>
       <c r="Z235" s="1" t="s">
-        <v>402</v>
+        <v>528</v>
       </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>403</v>
+        <v>529</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>403</v>
+        <v>529</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>37</v>
@@ -12405,15 +12405,15 @@
         <v>165</v>
       </c>
       <c r="Z236" s="1" t="s">
-        <v>403</v>
+        <v>529</v>
       </c>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>404</v>
+        <v>530</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>404</v>
+        <v>530</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>37</v>
@@ -12447,15 +12447,15 @@
         <v>165</v>
       </c>
       <c r="Z237" s="1" t="s">
-        <v>404</v>
+        <v>530</v>
       </c>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>405</v>
+        <v>531</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>405</v>
+        <v>531</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>37</v>
@@ -12489,15 +12489,15 @@
         <v>165</v>
       </c>
       <c r="Z238" s="1" t="s">
-        <v>405</v>
+        <v>531</v>
       </c>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>406</v>
+        <v>532</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>406</v>
+        <v>532</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>37</v>
@@ -12531,15 +12531,15 @@
         <v>165</v>
       </c>
       <c r="Z239" s="1" t="s">
-        <v>406</v>
+        <v>532</v>
       </c>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>407</v>
+        <v>533</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>407</v>
+        <v>533</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>37</v>
@@ -12573,15 +12573,15 @@
         <v>166</v>
       </c>
       <c r="Z240" s="1" t="s">
-        <v>407</v>
+        <v>533</v>
       </c>
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>408</v>
+        <v>534</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>408</v>
+        <v>534</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>37</v>
@@ -12615,15 +12615,15 @@
         <v>166</v>
       </c>
       <c r="Z241" s="1" t="s">
-        <v>408</v>
+        <v>534</v>
       </c>
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>409</v>
+        <v>535</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>409</v>
+        <v>535</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>37</v>
@@ -12657,15 +12657,15 @@
         <v>166</v>
       </c>
       <c r="Z242" s="1" t="s">
-        <v>409</v>
+        <v>535</v>
       </c>
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>410</v>
+        <v>536</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>410</v>
+        <v>536</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>37</v>
@@ -12699,15 +12699,15 @@
         <v>166</v>
       </c>
       <c r="Z243" s="1" t="s">
-        <v>410</v>
+        <v>536</v>
       </c>
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>411</v>
+        <v>537</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>411</v>
+        <v>537</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>37</v>
@@ -12741,15 +12741,15 @@
         <v>166</v>
       </c>
       <c r="Z244" s="1" t="s">
-        <v>411</v>
+        <v>537</v>
       </c>
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>412</v>
+        <v>538</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>412</v>
+        <v>538</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>37</v>
@@ -12783,15 +12783,15 @@
         <v>166</v>
       </c>
       <c r="Z245" s="1" t="s">
-        <v>412</v>
+        <v>538</v>
       </c>
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>413</v>
+        <v>539</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>413</v>
+        <v>539</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>37</v>
@@ -12825,15 +12825,15 @@
         <v>166</v>
       </c>
       <c r="Z246" s="1" t="s">
-        <v>413</v>
+        <v>539</v>
       </c>
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>414</v>
+        <v>540</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>414</v>
+        <v>540</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>37</v>
@@ -12867,15 +12867,15 @@
         <v>166</v>
       </c>
       <c r="Z247" s="1" t="s">
-        <v>414</v>
+        <v>540</v>
       </c>
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>415</v>
+        <v>541</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>415</v>
+        <v>541</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>37</v>
@@ -12909,15 +12909,15 @@
         <v>166</v>
       </c>
       <c r="Z248" s="1" t="s">
-        <v>415</v>
+        <v>541</v>
       </c>
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>416</v>
+        <v>542</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>416</v>
+        <v>542</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>37</v>
@@ -12951,15 +12951,15 @@
         <v>166</v>
       </c>
       <c r="Z249" s="1" t="s">
-        <v>416</v>
+        <v>542</v>
       </c>
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>417</v>
+        <v>543</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>417</v>
+        <v>543</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>37</v>
@@ -12993,15 +12993,15 @@
         <v>166</v>
       </c>
       <c r="Z250" s="1" t="s">
-        <v>417</v>
+        <v>543</v>
       </c>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>418</v>
+        <v>544</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>418</v>
+        <v>544</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>37</v>
@@ -13035,15 +13035,15 @@
         <v>166</v>
       </c>
       <c r="Z251" s="1" t="s">
-        <v>418</v>
+        <v>544</v>
       </c>
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>37</v>
@@ -13077,15 +13077,15 @@
         <v>166</v>
       </c>
       <c r="Z252" s="1" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>420</v>
+        <v>546</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>420</v>
+        <v>546</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>37</v>
@@ -13119,15 +13119,15 @@
         <v>166</v>
       </c>
       <c r="Z253" s="1" t="s">
-        <v>420</v>
+        <v>546</v>
       </c>
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>421</v>
+        <v>181</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>421</v>
+        <v>181</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>37</v>
@@ -13161,15 +13161,15 @@
         <v>167</v>
       </c>
       <c r="Z254" s="1" t="s">
-        <v>421</v>
+        <v>181</v>
       </c>
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>422</v>
+        <v>182</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>422</v>
+        <v>182</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>37</v>
@@ -13203,15 +13203,15 @@
         <v>167</v>
       </c>
       <c r="Z255" s="1" t="s">
-        <v>422</v>
+        <v>182</v>
       </c>
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>423</v>
+        <v>183</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>423</v>
+        <v>183</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>37</v>
@@ -13245,15 +13245,15 @@
         <v>167</v>
       </c>
       <c r="Z256" s="1" t="s">
-        <v>423</v>
+        <v>183</v>
       </c>
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>424</v>
+        <v>184</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>424</v>
+        <v>184</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>37</v>
@@ -13287,15 +13287,15 @@
         <v>167</v>
       </c>
       <c r="Z257" s="1" t="s">
-        <v>424</v>
+        <v>184</v>
       </c>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>425</v>
+        <v>185</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>425</v>
+        <v>185</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>37</v>
@@ -13329,15 +13329,15 @@
         <v>167</v>
       </c>
       <c r="Z258" s="1" t="s">
-        <v>425</v>
+        <v>185</v>
       </c>
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>426</v>
+        <v>186</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>426</v>
+        <v>186</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>37</v>
@@ -13371,15 +13371,15 @@
         <v>167</v>
       </c>
       <c r="Z259" s="1" t="s">
-        <v>426</v>
+        <v>186</v>
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>427</v>
+        <v>187</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>427</v>
+        <v>187</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>37</v>
@@ -13413,15 +13413,15 @@
         <v>167</v>
       </c>
       <c r="Z260" s="1" t="s">
-        <v>427</v>
+        <v>187</v>
       </c>
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>428</v>
+        <v>188</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>428</v>
+        <v>188</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>37</v>
@@ -13455,15 +13455,15 @@
         <v>167</v>
       </c>
       <c r="Z261" s="1" t="s">
-        <v>428</v>
+        <v>188</v>
       </c>
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>429</v>
+        <v>189</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>429</v>
+        <v>189</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>37</v>
@@ -13497,15 +13497,15 @@
         <v>167</v>
       </c>
       <c r="Z262" s="1" t="s">
-        <v>429</v>
+        <v>189</v>
       </c>
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>430</v>
+        <v>190</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>430</v>
+        <v>190</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>37</v>
@@ -13539,15 +13539,15 @@
         <v>167</v>
       </c>
       <c r="Z263" s="1" t="s">
-        <v>430</v>
+        <v>190</v>
       </c>
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>431</v>
+        <v>191</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>431</v>
+        <v>191</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>37</v>
@@ -13581,15 +13581,15 @@
         <v>168</v>
       </c>
       <c r="Z264" s="1" t="s">
-        <v>431</v>
+        <v>191</v>
       </c>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>432</v>
+        <v>192</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>432</v>
+        <v>192</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>37</v>
@@ -13623,15 +13623,15 @@
         <v>168</v>
       </c>
       <c r="Z265" s="1" t="s">
-        <v>432</v>
+        <v>192</v>
       </c>
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>433</v>
+        <v>193</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>433</v>
+        <v>193</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>37</v>
@@ -13665,15 +13665,15 @@
         <v>168</v>
       </c>
       <c r="Z266" s="1" t="s">
-        <v>433</v>
+        <v>193</v>
       </c>
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>434</v>
+        <v>194</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>434</v>
+        <v>194</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>37</v>
@@ -13707,15 +13707,15 @@
         <v>168</v>
       </c>
       <c r="Z267" s="1" t="s">
-        <v>434</v>
+        <v>194</v>
       </c>
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>435</v>
+        <v>195</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>435</v>
+        <v>195</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>37</v>
@@ -13749,15 +13749,15 @@
         <v>168</v>
       </c>
       <c r="Z268" s="1" t="s">
-        <v>435</v>
+        <v>195</v>
       </c>
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>436</v>
+        <v>196</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>436</v>
+        <v>196</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>37</v>
@@ -13791,15 +13791,15 @@
         <v>168</v>
       </c>
       <c r="Z269" s="1" t="s">
-        <v>436</v>
+        <v>196</v>
       </c>
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>437</v>
+        <v>197</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>437</v>
+        <v>197</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>37</v>
@@ -13833,15 +13833,15 @@
         <v>168</v>
       </c>
       <c r="Z270" s="1" t="s">
-        <v>437</v>
+        <v>197</v>
       </c>
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>438</v>
+        <v>198</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>438</v>
+        <v>198</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>37</v>
@@ -13875,15 +13875,15 @@
         <v>168</v>
       </c>
       <c r="Z271" s="1" t="s">
-        <v>438</v>
+        <v>198</v>
       </c>
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>439</v>
+        <v>199</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>439</v>
+        <v>199</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>37</v>
@@ -13917,15 +13917,15 @@
         <v>168</v>
       </c>
       <c r="Z272" s="1" t="s">
-        <v>439</v>
+        <v>199</v>
       </c>
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>37</v>
@@ -13959,15 +13959,15 @@
         <v>168</v>
       </c>
       <c r="Z273" s="1" t="s">
-        <v>440</v>
+        <v>200</v>
       </c>
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>441</v>
+        <v>201</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>441</v>
+        <v>201</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>37</v>
@@ -14001,15 +14001,15 @@
         <v>168</v>
       </c>
       <c r="Z274" s="1" t="s">
-        <v>441</v>
+        <v>201</v>
       </c>
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>442</v>
+        <v>202</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>442</v>
+        <v>202</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>37</v>
@@ -14043,15 +14043,15 @@
         <v>168</v>
       </c>
       <c r="Z275" s="1" t="s">
-        <v>442</v>
+        <v>202</v>
       </c>
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>443</v>
+        <v>203</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>443</v>
+        <v>203</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>37</v>
@@ -14085,15 +14085,15 @@
         <v>169</v>
       </c>
       <c r="Z276" s="1" t="s">
-        <v>443</v>
+        <v>203</v>
       </c>
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>444</v>
+        <v>204</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>444</v>
+        <v>204</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>37</v>
@@ -14127,15 +14127,15 @@
         <v>169</v>
       </c>
       <c r="Z277" s="1" t="s">
-        <v>444</v>
+        <v>204</v>
       </c>
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>445</v>
+        <v>205</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>445</v>
+        <v>205</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>37</v>
@@ -14169,15 +14169,15 @@
         <v>169</v>
       </c>
       <c r="Z278" s="1" t="s">
-        <v>445</v>
+        <v>205</v>
       </c>
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>37</v>
@@ -14211,15 +14211,15 @@
         <v>169</v>
       </c>
       <c r="Z279" s="1" t="s">
-        <v>446</v>
+        <v>206</v>
       </c>
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>447</v>
+        <v>207</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>447</v>
+        <v>207</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>37</v>
@@ -14253,15 +14253,15 @@
         <v>169</v>
       </c>
       <c r="Z280" s="1" t="s">
-        <v>447</v>
+        <v>207</v>
       </c>
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>448</v>
+        <v>208</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>448</v>
+        <v>208</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>37</v>
@@ -14295,15 +14295,15 @@
         <v>169</v>
       </c>
       <c r="Z281" s="1" t="s">
-        <v>448</v>
+        <v>208</v>
       </c>
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>449</v>
+        <v>209</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>449</v>
+        <v>209</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>37</v>
@@ -14337,15 +14337,15 @@
         <v>169</v>
       </c>
       <c r="Z282" s="1" t="s">
-        <v>449</v>
+        <v>209</v>
       </c>
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>37</v>
@@ -14379,15 +14379,15 @@
         <v>169</v>
       </c>
       <c r="Z283" s="1" t="s">
-        <v>450</v>
+        <v>210</v>
       </c>
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>451</v>
+        <v>211</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>451</v>
+        <v>211</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>37</v>
@@ -14421,15 +14421,15 @@
         <v>169</v>
       </c>
       <c r="Z284" s="1" t="s">
-        <v>451</v>
+        <v>211</v>
       </c>
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>452</v>
+        <v>212</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>452</v>
+        <v>212</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>37</v>
@@ -14463,15 +14463,15 @@
         <v>169</v>
       </c>
       <c r="Z285" s="1" t="s">
-        <v>452</v>
+        <v>212</v>
       </c>
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>453</v>
+        <v>213</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>453</v>
+        <v>213</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>37</v>
@@ -14505,15 +14505,15 @@
         <v>170</v>
       </c>
       <c r="Z286" s="1" t="s">
-        <v>453</v>
+        <v>213</v>
       </c>
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>454</v>
+        <v>214</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>454</v>
+        <v>214</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>37</v>
@@ -14547,15 +14547,15 @@
         <v>170</v>
       </c>
       <c r="Z287" s="1" t="s">
-        <v>454</v>
+        <v>214</v>
       </c>
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>455</v>
+        <v>215</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>455</v>
+        <v>215</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>37</v>
@@ -14589,15 +14589,15 @@
         <v>170</v>
       </c>
       <c r="Z288" s="1" t="s">
-        <v>455</v>
+        <v>215</v>
       </c>
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>456</v>
+        <v>216</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>456</v>
+        <v>216</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>37</v>
@@ -14631,15 +14631,15 @@
         <v>170</v>
       </c>
       <c r="Z289" s="1" t="s">
-        <v>456</v>
+        <v>216</v>
       </c>
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>457</v>
+        <v>217</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>457</v>
+        <v>217</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>37</v>
@@ -14673,15 +14673,15 @@
         <v>170</v>
       </c>
       <c r="Z290" s="1" t="s">
-        <v>457</v>
+        <v>217</v>
       </c>
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>458</v>
+        <v>218</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>458</v>
+        <v>218</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>37</v>
@@ -14715,15 +14715,15 @@
         <v>170</v>
       </c>
       <c r="Z291" s="1" t="s">
-        <v>458</v>
+        <v>218</v>
       </c>
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>459</v>
+        <v>219</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>459</v>
+        <v>219</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>37</v>
@@ -14757,15 +14757,15 @@
         <v>170</v>
       </c>
       <c r="Z292" s="1" t="s">
-        <v>459</v>
+        <v>219</v>
       </c>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>460</v>
+        <v>220</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>460</v>
+        <v>220</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>37</v>
@@ -14799,15 +14799,15 @@
         <v>170</v>
       </c>
       <c r="Z293" s="1" t="s">
-        <v>460</v>
+        <v>220</v>
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>461</v>
+        <v>221</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>461</v>
+        <v>221</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>37</v>
@@ -14841,15 +14841,15 @@
         <v>170</v>
       </c>
       <c r="Z294" s="1" t="s">
-        <v>461</v>
+        <v>221</v>
       </c>
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>37</v>
@@ -14883,15 +14883,15 @@
         <v>170</v>
       </c>
       <c r="Z295" s="1" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>463</v>
+        <v>223</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>463</v>
+        <v>223</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>37</v>
@@ -14925,15 +14925,15 @@
         <v>171</v>
       </c>
       <c r="Z296" s="1" t="s">
-        <v>463</v>
+        <v>223</v>
       </c>
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>464</v>
+        <v>224</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>464</v>
+        <v>224</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>37</v>
@@ -14967,15 +14967,15 @@
         <v>171</v>
       </c>
       <c r="Z297" s="1" t="s">
-        <v>464</v>
+        <v>224</v>
       </c>
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>465</v>
+        <v>225</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>465</v>
+        <v>225</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>37</v>
@@ -15009,15 +15009,15 @@
         <v>171</v>
       </c>
       <c r="Z298" s="1" t="s">
-        <v>465</v>
+        <v>225</v>
       </c>
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>466</v>
+        <v>226</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>466</v>
+        <v>226</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>37</v>
@@ -15051,15 +15051,15 @@
         <v>171</v>
       </c>
       <c r="Z299" s="1" t="s">
-        <v>466</v>
+        <v>226</v>
       </c>
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>467</v>
+        <v>227</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>467</v>
+        <v>227</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>37</v>
@@ -15093,15 +15093,15 @@
         <v>171</v>
       </c>
       <c r="Z300" s="1" t="s">
-        <v>467</v>
+        <v>227</v>
       </c>
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>468</v>
+        <v>228</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>468</v>
+        <v>228</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>37</v>
@@ -15135,15 +15135,15 @@
         <v>171</v>
       </c>
       <c r="Z301" s="1" t="s">
-        <v>468</v>
+        <v>228</v>
       </c>
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>469</v>
+        <v>229</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>469</v>
+        <v>229</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>37</v>
@@ -15177,15 +15177,15 @@
         <v>171</v>
       </c>
       <c r="Z302" s="1" t="s">
-        <v>469</v>
+        <v>229</v>
       </c>
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>470</v>
+        <v>230</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>470</v>
+        <v>230</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>37</v>
@@ -15219,15 +15219,15 @@
         <v>171</v>
       </c>
       <c r="Z303" s="1" t="s">
-        <v>470</v>
+        <v>230</v>
       </c>
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>471</v>
+        <v>231</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>471</v>
+        <v>231</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>37</v>
@@ -15261,15 +15261,15 @@
         <v>171</v>
       </c>
       <c r="Z304" s="1" t="s">
-        <v>471</v>
+        <v>231</v>
       </c>
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>472</v>
+        <v>232</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>472</v>
+        <v>232</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>37</v>
@@ -15303,15 +15303,15 @@
         <v>171</v>
       </c>
       <c r="Z305" s="1" t="s">
-        <v>472</v>
+        <v>232</v>
       </c>
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>473</v>
+        <v>233</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>473</v>
+        <v>233</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>37</v>
@@ -15345,15 +15345,15 @@
         <v>172</v>
       </c>
       <c r="Z306" s="1" t="s">
-        <v>473</v>
+        <v>233</v>
       </c>
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>474</v>
+        <v>234</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>474</v>
+        <v>234</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>37</v>
@@ -15387,15 +15387,15 @@
         <v>172</v>
       </c>
       <c r="Z307" s="1" t="s">
-        <v>474</v>
+        <v>234</v>
       </c>
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>475</v>
+        <v>235</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>475</v>
+        <v>235</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>37</v>
@@ -15429,15 +15429,15 @@
         <v>172</v>
       </c>
       <c r="Z308" s="1" t="s">
-        <v>475</v>
+        <v>235</v>
       </c>
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>476</v>
+        <v>236</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>476</v>
+        <v>236</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>37</v>
@@ -15471,15 +15471,15 @@
         <v>172</v>
       </c>
       <c r="Z309" s="1" t="s">
-        <v>476</v>
+        <v>236</v>
       </c>
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>477</v>
+        <v>237</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>477</v>
+        <v>237</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>37</v>
@@ -15513,15 +15513,15 @@
         <v>172</v>
       </c>
       <c r="Z310" s="1" t="s">
-        <v>477</v>
+        <v>237</v>
       </c>
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>478</v>
+        <v>238</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>478</v>
+        <v>238</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>37</v>
@@ -15555,15 +15555,15 @@
         <v>172</v>
       </c>
       <c r="Z311" s="1" t="s">
-        <v>478</v>
+        <v>238</v>
       </c>
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>479</v>
+        <v>239</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>479</v>
+        <v>239</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>37</v>
@@ -15597,15 +15597,15 @@
         <v>172</v>
       </c>
       <c r="Z312" s="1" t="s">
-        <v>479</v>
+        <v>239</v>
       </c>
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>37</v>
@@ -15639,15 +15639,15 @@
         <v>172</v>
       </c>
       <c r="Z313" s="1" t="s">
-        <v>480</v>
+        <v>240</v>
       </c>
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>481</v>
+        <v>241</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>481</v>
+        <v>241</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>37</v>
@@ -15681,15 +15681,15 @@
         <v>172</v>
       </c>
       <c r="Z314" s="1" t="s">
-        <v>481</v>
+        <v>241</v>
       </c>
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>482</v>
+        <v>242</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>482</v>
+        <v>242</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>37</v>
@@ -15723,15 +15723,15 @@
         <v>172</v>
       </c>
       <c r="Z315" s="1" t="s">
-        <v>482</v>
+        <v>242</v>
       </c>
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>483</v>
+        <v>243</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>483</v>
+        <v>243</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>37</v>
@@ -15765,15 +15765,15 @@
         <v>173</v>
       </c>
       <c r="Z316" s="1" t="s">
-        <v>483</v>
+        <v>243</v>
       </c>
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>484</v>
+        <v>244</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>484</v>
+        <v>244</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>37</v>
@@ -15807,15 +15807,15 @@
         <v>173</v>
       </c>
       <c r="Z317" s="1" t="s">
-        <v>484</v>
+        <v>244</v>
       </c>
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>485</v>
+        <v>245</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>485</v>
+        <v>245</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>37</v>
@@ -15849,15 +15849,15 @@
         <v>173</v>
       </c>
       <c r="Z318" s="1" t="s">
-        <v>485</v>
+        <v>245</v>
       </c>
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>486</v>
+        <v>246</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>486</v>
+        <v>246</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>37</v>
@@ -15891,15 +15891,15 @@
         <v>173</v>
       </c>
       <c r="Z319" s="1" t="s">
-        <v>486</v>
+        <v>246</v>
       </c>
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>487</v>
+        <v>247</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>487</v>
+        <v>247</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>37</v>
@@ -15933,15 +15933,15 @@
         <v>173</v>
       </c>
       <c r="Z320" s="1" t="s">
-        <v>487</v>
+        <v>247</v>
       </c>
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>488</v>
+        <v>248</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>488</v>
+        <v>248</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>37</v>
@@ -15975,15 +15975,15 @@
         <v>173</v>
       </c>
       <c r="Z321" s="1" t="s">
-        <v>488</v>
+        <v>248</v>
       </c>
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>489</v>
+        <v>249</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>489</v>
+        <v>249</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>37</v>
@@ -16017,15 +16017,15 @@
         <v>173</v>
       </c>
       <c r="Z322" s="1" t="s">
-        <v>489</v>
+        <v>249</v>
       </c>
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>37</v>
@@ -16059,15 +16059,15 @@
         <v>173</v>
       </c>
       <c r="Z323" s="1" t="s">
-        <v>490</v>
+        <v>250</v>
       </c>
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>491</v>
+        <v>251</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>491</v>
+        <v>251</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>37</v>
@@ -16101,15 +16101,15 @@
         <v>173</v>
       </c>
       <c r="Z324" s="1" t="s">
-        <v>491</v>
+        <v>251</v>
       </c>
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>492</v>
+        <v>252</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>492</v>
+        <v>252</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>37</v>
@@ -16143,15 +16143,15 @@
         <v>173</v>
       </c>
       <c r="Z325" s="1" t="s">
-        <v>492</v>
+        <v>252</v>
       </c>
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>493</v>
+        <v>253</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>493</v>
+        <v>253</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>37</v>
@@ -16185,15 +16185,15 @@
         <v>174</v>
       </c>
       <c r="Z326" s="1" t="s">
-        <v>493</v>
+        <v>253</v>
       </c>
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>494</v>
+        <v>254</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>494</v>
+        <v>254</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>37</v>
@@ -16227,15 +16227,15 @@
         <v>174</v>
       </c>
       <c r="Z327" s="1" t="s">
-        <v>494</v>
+        <v>254</v>
       </c>
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>495</v>
+        <v>255</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>495</v>
+        <v>255</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>37</v>
@@ -16269,15 +16269,15 @@
         <v>174</v>
       </c>
       <c r="Z328" s="1" t="s">
-        <v>495</v>
+        <v>255</v>
       </c>
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>496</v>
+        <v>256</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>496</v>
+        <v>256</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>37</v>
@@ -16311,15 +16311,15 @@
         <v>174</v>
       </c>
       <c r="Z329" s="1" t="s">
-        <v>496</v>
+        <v>256</v>
       </c>
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>497</v>
+        <v>257</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>497</v>
+        <v>257</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>37</v>
@@ -16353,15 +16353,15 @@
         <v>174</v>
       </c>
       <c r="Z330" s="1" t="s">
-        <v>497</v>
+        <v>257</v>
       </c>
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>498</v>
+        <v>258</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>498</v>
+        <v>258</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>37</v>
@@ -16395,15 +16395,15 @@
         <v>174</v>
       </c>
       <c r="Z331" s="1" t="s">
-        <v>498</v>
+        <v>258</v>
       </c>
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>499</v>
+        <v>259</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>499</v>
+        <v>259</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>37</v>
@@ -16437,15 +16437,15 @@
         <v>174</v>
       </c>
       <c r="Z332" s="1" t="s">
-        <v>499</v>
+        <v>259</v>
       </c>
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>37</v>
@@ -16479,15 +16479,15 @@
         <v>174</v>
       </c>
       <c r="Z333" s="1" t="s">
-        <v>500</v>
+        <v>260</v>
       </c>
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>501</v>
+        <v>261</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>501</v>
+        <v>261</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>37</v>
@@ -16521,15 +16521,15 @@
         <v>174</v>
       </c>
       <c r="Z334" s="1" t="s">
-        <v>501</v>
+        <v>261</v>
       </c>
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>502</v>
+        <v>262</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>502</v>
+        <v>262</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>37</v>
@@ -16563,15 +16563,15 @@
         <v>174</v>
       </c>
       <c r="Z335" s="1" t="s">
-        <v>502</v>
+        <v>262</v>
       </c>
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>37</v>
@@ -16605,15 +16605,15 @@
         <v>174</v>
       </c>
       <c r="Z336" s="1" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>504</v>
+        <v>264</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>504</v>
+        <v>264</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>37</v>
@@ -16647,15 +16647,15 @@
         <v>174</v>
       </c>
       <c r="Z337" s="1" t="s">
-        <v>504</v>
+        <v>264</v>
       </c>
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>505</v>
+        <v>265</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>505</v>
+        <v>265</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>37</v>
@@ -16689,15 +16689,15 @@
         <v>175</v>
       </c>
       <c r="Z338" s="1" t="s">
-        <v>505</v>
+        <v>265</v>
       </c>
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>506</v>
+        <v>266</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>506</v>
+        <v>266</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>37</v>
@@ -16731,15 +16731,15 @@
         <v>175</v>
       </c>
       <c r="Z339" s="1" t="s">
-        <v>506</v>
+        <v>266</v>
       </c>
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>507</v>
+        <v>267</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>507</v>
+        <v>267</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>37</v>
@@ -16773,15 +16773,15 @@
         <v>175</v>
       </c>
       <c r="Z340" s="1" t="s">
-        <v>507</v>
+        <v>267</v>
       </c>
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>508</v>
+        <v>268</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>508</v>
+        <v>268</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>37</v>
@@ -16815,15 +16815,15 @@
         <v>175</v>
       </c>
       <c r="Z341" s="1" t="s">
-        <v>508</v>
+        <v>268</v>
       </c>
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>509</v>
+        <v>269</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>509</v>
+        <v>269</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>37</v>
@@ -16857,15 +16857,15 @@
         <v>175</v>
       </c>
       <c r="Z342" s="1" t="s">
-        <v>509</v>
+        <v>269</v>
       </c>
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>510</v>
+        <v>270</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>510</v>
+        <v>270</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>37</v>
@@ -16899,15 +16899,15 @@
         <v>175</v>
       </c>
       <c r="Z343" s="1" t="s">
-        <v>510</v>
+        <v>270</v>
       </c>
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>511</v>
+        <v>271</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>511</v>
+        <v>271</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>37</v>
@@ -16941,15 +16941,15 @@
         <v>175</v>
       </c>
       <c r="Z344" s="1" t="s">
-        <v>511</v>
+        <v>271</v>
       </c>
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>512</v>
+        <v>272</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>512</v>
+        <v>272</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>37</v>
@@ -16983,15 +16983,15 @@
         <v>175</v>
       </c>
       <c r="Z345" s="1" t="s">
-        <v>512</v>
+        <v>272</v>
       </c>
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>513</v>
+        <v>273</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>513</v>
+        <v>273</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>37</v>
@@ -17025,15 +17025,15 @@
         <v>175</v>
       </c>
       <c r="Z346" s="1" t="s">
-        <v>513</v>
+        <v>273</v>
       </c>
     </row>
     <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>514</v>
+        <v>274</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>514</v>
+        <v>274</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>37</v>
@@ -17067,15 +17067,15 @@
         <v>175</v>
       </c>
       <c r="Z347" s="1" t="s">
-        <v>514</v>
+        <v>274</v>
       </c>
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>515</v>
+        <v>275</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>515</v>
+        <v>275</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>37</v>
@@ -17109,15 +17109,15 @@
         <v>176</v>
       </c>
       <c r="Z348" s="1" t="s">
-        <v>515</v>
+        <v>275</v>
       </c>
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>516</v>
+        <v>276</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>516</v>
+        <v>276</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>37</v>
@@ -17151,15 +17151,15 @@
         <v>176</v>
       </c>
       <c r="Z349" s="1" t="s">
-        <v>516</v>
+        <v>276</v>
       </c>
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>517</v>
+        <v>277</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>517</v>
+        <v>277</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>37</v>
@@ -17193,15 +17193,15 @@
         <v>176</v>
       </c>
       <c r="Z350" s="1" t="s">
-        <v>517</v>
+        <v>277</v>
       </c>
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>518</v>
+        <v>278</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>518</v>
+        <v>278</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>37</v>
@@ -17235,15 +17235,15 @@
         <v>176</v>
       </c>
       <c r="Z351" s="1" t="s">
-        <v>518</v>
+        <v>278</v>
       </c>
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>519</v>
+        <v>279</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>519</v>
+        <v>279</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>37</v>
@@ -17277,15 +17277,15 @@
         <v>176</v>
       </c>
       <c r="Z352" s="1" t="s">
-        <v>519</v>
+        <v>279</v>
       </c>
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>520</v>
+        <v>280</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>520</v>
+        <v>280</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>37</v>
@@ -17319,15 +17319,15 @@
         <v>176</v>
       </c>
       <c r="Z353" s="1" t="s">
-        <v>520</v>
+        <v>280</v>
       </c>
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>521</v>
+        <v>281</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>521</v>
+        <v>281</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>37</v>
@@ -17361,15 +17361,15 @@
         <v>176</v>
       </c>
       <c r="Z354" s="1" t="s">
-        <v>521</v>
+        <v>281</v>
       </c>
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>522</v>
+        <v>282</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>522</v>
+        <v>282</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>37</v>
@@ -17403,15 +17403,15 @@
         <v>176</v>
       </c>
       <c r="Z355" s="1" t="s">
-        <v>522</v>
+        <v>282</v>
       </c>
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>523</v>
+        <v>283</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>523</v>
+        <v>283</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>37</v>
@@ -17445,15 +17445,15 @@
         <v>176</v>
       </c>
       <c r="Z356" s="1" t="s">
-        <v>523</v>
+        <v>283</v>
       </c>
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>524</v>
+        <v>284</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>524</v>
+        <v>284</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>37</v>
@@ -17487,15 +17487,15 @@
         <v>176</v>
       </c>
       <c r="Z357" s="1" t="s">
-        <v>524</v>
+        <v>284</v>
       </c>
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>525</v>
+        <v>285</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>525</v>
+        <v>285</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>37</v>
@@ -17529,15 +17529,15 @@
         <v>177</v>
       </c>
       <c r="Z358" s="1" t="s">
-        <v>525</v>
+        <v>285</v>
       </c>
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>526</v>
+        <v>286</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>526</v>
+        <v>286</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>37</v>
@@ -17571,15 +17571,15 @@
         <v>177</v>
       </c>
       <c r="Z359" s="1" t="s">
-        <v>526</v>
+        <v>286</v>
       </c>
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>527</v>
+        <v>287</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>527</v>
+        <v>287</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>37</v>
@@ -17613,15 +17613,15 @@
         <v>177</v>
       </c>
       <c r="Z360" s="1" t="s">
-        <v>527</v>
+        <v>287</v>
       </c>
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>528</v>
+        <v>288</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>528</v>
+        <v>288</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>37</v>
@@ -17655,15 +17655,15 @@
         <v>177</v>
       </c>
       <c r="Z361" s="1" t="s">
-        <v>528</v>
+        <v>288</v>
       </c>
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>529</v>
+        <v>289</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>529</v>
+        <v>289</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>37</v>
@@ -17697,15 +17697,15 @@
         <v>177</v>
       </c>
       <c r="Z362" s="1" t="s">
-        <v>529</v>
+        <v>289</v>
       </c>
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>530</v>
+        <v>290</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>530</v>
+        <v>290</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>37</v>
@@ -17739,15 +17739,15 @@
         <v>177</v>
       </c>
       <c r="Z363" s="1" t="s">
-        <v>530</v>
+        <v>290</v>
       </c>
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>531</v>
+        <v>291</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>531</v>
+        <v>291</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>37</v>
@@ -17781,15 +17781,15 @@
         <v>177</v>
       </c>
       <c r="Z364" s="1" t="s">
-        <v>531</v>
+        <v>291</v>
       </c>
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>532</v>
+        <v>292</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>532</v>
+        <v>292</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>37</v>
@@ -17823,15 +17823,15 @@
         <v>177</v>
       </c>
       <c r="Z365" s="1" t="s">
-        <v>532</v>
+        <v>292</v>
       </c>
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>533</v>
+        <v>293</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>533</v>
+        <v>293</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>37</v>
@@ -17865,15 +17865,15 @@
         <v>177</v>
       </c>
       <c r="Z366" s="1" t="s">
-        <v>533</v>
+        <v>293</v>
       </c>
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>534</v>
+        <v>294</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>534</v>
+        <v>294</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>37</v>
@@ -17907,15 +17907,15 @@
         <v>177</v>
       </c>
       <c r="Z367" s="1" t="s">
-        <v>534</v>
+        <v>294</v>
       </c>
     </row>
     <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>535</v>
+        <v>295</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>535</v>
+        <v>295</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>37</v>
@@ -17949,15 +17949,15 @@
         <v>177</v>
       </c>
       <c r="Z368" s="1" t="s">
-        <v>535</v>
+        <v>295</v>
       </c>
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>536</v>
+        <v>296</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>536</v>
+        <v>296</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>37</v>
@@ -17991,15 +17991,15 @@
         <v>177</v>
       </c>
       <c r="Z369" s="1" t="s">
-        <v>536</v>
+        <v>296</v>
       </c>
     </row>
     <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>537</v>
+        <v>297</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>537</v>
+        <v>297</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>37</v>
@@ -18033,15 +18033,15 @@
         <v>178</v>
       </c>
       <c r="Z370" s="1" t="s">
-        <v>537</v>
+        <v>297</v>
       </c>
     </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>538</v>
+        <v>298</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>538</v>
+        <v>298</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>37</v>
@@ -18075,15 +18075,15 @@
         <v>178</v>
       </c>
       <c r="Z371" s="1" t="s">
-        <v>538</v>
+        <v>298</v>
       </c>
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>37</v>
@@ -18117,15 +18117,15 @@
         <v>178</v>
       </c>
       <c r="Z372" s="1" t="s">
-        <v>539</v>
+        <v>299</v>
       </c>
     </row>
     <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>37</v>
@@ -18159,15 +18159,15 @@
         <v>178</v>
       </c>
       <c r="Z373" s="1" t="s">
-        <v>540</v>
+        <v>300</v>
       </c>
     </row>
     <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>541</v>
+        <v>301</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>541</v>
+        <v>301</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>37</v>
@@ -18201,15 +18201,15 @@
         <v>178</v>
       </c>
       <c r="Z374" s="1" t="s">
-        <v>541</v>
+        <v>301</v>
       </c>
     </row>
     <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>542</v>
+        <v>302</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>542</v>
+        <v>302</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>37</v>
@@ -18243,15 +18243,15 @@
         <v>178</v>
       </c>
       <c r="Z375" s="1" t="s">
-        <v>542</v>
+        <v>302</v>
       </c>
     </row>
     <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>543</v>
+        <v>303</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>543</v>
+        <v>303</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>37</v>
@@ -18285,15 +18285,15 @@
         <v>178</v>
       </c>
       <c r="Z376" s="1" t="s">
-        <v>543</v>
+        <v>303</v>
       </c>
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>544</v>
+        <v>304</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>544</v>
+        <v>304</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>37</v>
@@ -18327,15 +18327,15 @@
         <v>178</v>
       </c>
       <c r="Z377" s="1" t="s">
-        <v>544</v>
+        <v>304</v>
       </c>
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>545</v>
+        <v>305</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>545</v>
+        <v>305</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>37</v>
@@ -18369,15 +18369,15 @@
         <v>178</v>
       </c>
       <c r="Z378" s="1" t="s">
-        <v>545</v>
+        <v>305</v>
       </c>
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>546</v>
+        <v>306</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>546</v>
+        <v>306</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>37</v>
@@ -18411,7 +18411,7 @@
         <v>178</v>
       </c>
       <c r="Z379" s="1" t="s">
-        <v>546</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
